--- a/resources/HIT22VCteam.xlsx
+++ b/resources/HIT22VCteam.xlsx
@@ -10951,7 +10951,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/resources/HIT22VCteam.xlsx
+++ b/resources/HIT22VCteam.xlsx
@@ -957,7 +957,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,6 +985,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,10 +1386,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1386,16 +1398,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1407,10 +1419,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1431,28 +1443,28 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1461,22 +1473,16 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1485,19 +1491,19 @@
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1506,19 +1512,25 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1573,6 +1585,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1633,22 +1648,34 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1656,6 +1683,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2477,2221 +2513,2221 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A63" sqref="A63:W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.6" style="65" customWidth="1"/>
-    <col min="2" max="2" width="11.85" style="65" customWidth="1"/>
-    <col min="3" max="3" width="15" style="65" customWidth="1"/>
-    <col min="4" max="4" width="8.30833333333333" style="65" customWidth="1"/>
-    <col min="5" max="5" width="20.15" style="66" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="5.6" style="73" customWidth="1"/>
+    <col min="2" max="2" width="11.85" style="73" customWidth="1"/>
+    <col min="3" max="3" width="15" style="73" customWidth="1"/>
+    <col min="4" max="4" width="8.30833333333333" style="73" customWidth="1"/>
+    <col min="5" max="5" width="20.15" style="74" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" s="62" customFormat="1" ht="23" customHeight="1" spans="1:5">
-      <c r="A1" s="68" t="s">
+    <row r="1" s="70" customFormat="1" ht="23" customHeight="1" spans="1:5">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" s="63" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A2" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+    </row>
+    <row r="2" s="71" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="78" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="50">
-        <v>1</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="71" t="s">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="80" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:5">
-      <c r="A4" s="50">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:5">
-      <c r="A5" s="50">
+      <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="80" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:5">
-      <c r="A6" s="50">
+      <c r="A6" s="58">
         <v>4</v>
       </c>
-      <c r="B6" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:5">
-      <c r="A7" s="50">
+      <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="80" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:5">
-      <c r="A8" s="50">
-        <v>6</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="71" t="s">
+      <c r="A8" s="58">
+        <v>6</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:5">
-      <c r="A9" s="50">
+      <c r="A9" s="58">
         <v>7</v>
       </c>
-      <c r="B9" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
-      <c r="A10" s="50">
+      <c r="A10" s="58">
         <v>8</v>
       </c>
-      <c r="B10" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="80" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:5">
-      <c r="A11" s="50">
+      <c r="A11" s="58">
         <v>9</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:5">
-      <c r="A12" s="50">
+      <c r="A12" s="58">
         <v>10</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="50">
+      <c r="A13" s="58">
         <v>11</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:5">
-      <c r="A14" s="50">
+      <c r="A14" s="58">
         <v>12</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="80" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:5">
-      <c r="A15" s="50">
+      <c r="A15" s="58">
         <v>13</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="71" t="s">
+      <c r="B15" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:5">
-      <c r="A16" s="50">
+      <c r="A16" s="58">
         <v>14</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="71" t="s">
+      <c r="B16" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:5">
-      <c r="A17" s="50">
+      <c r="A17" s="58">
         <v>15</v>
       </c>
-      <c r="B17" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="80" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:5">
-      <c r="A18" s="50">
+      <c r="A18" s="58">
         <v>16</v>
       </c>
-      <c r="B18" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="80" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:5">
-      <c r="A19" s="50">
+      <c r="A19" s="58">
         <v>17</v>
       </c>
-      <c r="B19" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="71" t="s">
+      <c r="B19" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="80" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:5">
-      <c r="A20" s="50">
+      <c r="A20" s="58">
         <v>18</v>
       </c>
-      <c r="B20" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="71" t="s">
+      <c r="B20" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:5">
-      <c r="A21" s="50">
+      <c r="A21" s="58">
         <v>19</v>
       </c>
-      <c r="B21" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="80" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:5">
-      <c r="A22" s="50">
+      <c r="A22" s="58">
         <v>20</v>
       </c>
-      <c r="B22" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="80" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
-      <c r="A23" s="50">
+      <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="71" t="s">
+      <c r="B23" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:5">
-      <c r="A24" s="50">
+      <c r="A24" s="58">
         <v>22</v>
       </c>
-      <c r="B24" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="71" t="s">
+      <c r="B24" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="80" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:5">
-      <c r="A25" s="50">
+      <c r="A25" s="58">
         <v>23</v>
       </c>
-      <c r="B25" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="71" t="s">
+      <c r="B25" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:5">
-      <c r="A26" s="50">
+      <c r="A26" s="58">
         <v>24</v>
       </c>
-      <c r="B26" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="71" t="s">
+      <c r="B26" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="80" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:5">
-      <c r="A27" s="50">
+      <c r="A27" s="58">
         <v>25</v>
       </c>
-      <c r="B27" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="71" t="s">
+      <c r="B27" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="80" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:5">
-      <c r="A28" s="50">
+      <c r="A28" s="58">
         <v>26</v>
       </c>
-      <c r="B28" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="71" t="s">
+      <c r="B28" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="80" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:5">
-      <c r="A29" s="50">
+      <c r="A29" s="58">
         <v>27</v>
       </c>
-      <c r="B29" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="71" t="s">
+      <c r="B29" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="80" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:5">
-      <c r="A30" s="50">
+      <c r="A30" s="58">
         <v>28</v>
       </c>
-      <c r="B30" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="71" t="s">
+      <c r="B30" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:5">
-      <c r="A31" s="50">
+      <c r="A31" s="58">
         <v>29</v>
       </c>
-      <c r="B31" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="71" t="s">
+      <c r="B31" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
-      <c r="A32" s="50">
+      <c r="A32" s="58">
         <v>30</v>
       </c>
-      <c r="B32" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="71" t="s">
+      <c r="B32" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="80" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:5">
-      <c r="A33" s="50">
+      <c r="A33" s="58">
         <v>31</v>
       </c>
-      <c r="B33" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="71" t="s">
+      <c r="B33" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="80" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:5">
-      <c r="A34" s="50">
+      <c r="A34" s="58">
         <v>32</v>
       </c>
-      <c r="B34" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="71" t="s">
+      <c r="B34" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="80" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:5">
-      <c r="A35" s="50">
+      <c r="A35" s="58">
         <v>33</v>
       </c>
-      <c r="B35" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="71" t="s">
+      <c r="B35" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="80" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:5">
-      <c r="A36" s="50">
+      <c r="A36" s="58">
         <v>34</v>
       </c>
-      <c r="B36" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="71" t="s">
+      <c r="B36" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="D36" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="80" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:5">
-      <c r="A37" s="50">
+      <c r="A37" s="58">
         <v>35</v>
       </c>
-      <c r="B37" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="71" t="s">
+      <c r="B37" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:5">
-      <c r="A38" s="50">
+      <c r="A38" s="58">
         <v>36</v>
       </c>
-      <c r="B38" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="71" t="s">
+      <c r="B38" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="80" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:5">
-      <c r="A39" s="50">
+      <c r="A39" s="58">
         <v>37</v>
       </c>
-      <c r="B39" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="71" t="s">
+      <c r="B39" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="80" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:5">
-      <c r="A40" s="50">
+      <c r="A40" s="58">
         <v>38</v>
       </c>
-      <c r="B40" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="71" t="s">
+      <c r="B40" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="80" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:5">
-      <c r="A41" s="50">
+      <c r="A41" s="58">
         <v>39</v>
       </c>
-      <c r="B41" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="71" t="s">
+      <c r="B41" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="80" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:5">
-      <c r="A42" s="50">
+      <c r="A42" s="58">
         <v>40</v>
       </c>
-      <c r="B42" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="71" t="s">
+      <c r="B42" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:5">
-      <c r="A43" s="50">
+      <c r="A43" s="58">
         <v>41</v>
       </c>
-      <c r="B43" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="71" t="s">
+      <c r="B43" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:5">
-      <c r="A44" s="50">
+      <c r="A44" s="58">
         <v>42</v>
       </c>
-      <c r="B44" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="71" t="s">
+      <c r="B44" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="72" t="s">
+      <c r="E44" s="80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:5">
-      <c r="A45" s="50">
+      <c r="A45" s="58">
         <v>43</v>
       </c>
-      <c r="B45" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="71" t="s">
+      <c r="B45" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:5">
-      <c r="A46" s="50">
+      <c r="A46" s="58">
         <v>44</v>
       </c>
-      <c r="B46" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="71" t="s">
+      <c r="B46" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="72" t="s">
+      <c r="E46" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:5">
-      <c r="A47" s="50">
+      <c r="A47" s="58">
         <v>45</v>
       </c>
-      <c r="B47" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="71" t="s">
+      <c r="B47" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="72" t="s">
+      <c r="E47" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:5">
-      <c r="A48" s="50">
+      <c r="A48" s="58">
         <v>46</v>
       </c>
-      <c r="B48" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="71" t="s">
+      <c r="B48" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:5">
-      <c r="A49" s="50">
+      <c r="A49" s="58">
         <v>47</v>
       </c>
-      <c r="B49" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="71" t="s">
+      <c r="B49" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="80" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:5">
-      <c r="A50" s="50">
+      <c r="A50" s="58">
         <v>48</v>
       </c>
-      <c r="B50" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="71" t="s">
+      <c r="B50" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="72" t="s">
+      <c r="E50" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:5">
-      <c r="A51" s="50">
+      <c r="A51" s="58">
         <v>49</v>
       </c>
-      <c r="B51" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="71" t="s">
+      <c r="B51" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="72" t="s">
+      <c r="E51" s="80" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:5">
-      <c r="A52" s="50">
+      <c r="A52" s="58">
         <v>50</v>
       </c>
-      <c r="B52" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="71" t="s">
+      <c r="B52" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="71" t="s">
+      <c r="D52" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="72" t="s">
+      <c r="E52" s="80" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:5">
-      <c r="A53" s="50">
+      <c r="A53" s="58">
         <v>51</v>
       </c>
-      <c r="B53" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="71" t="s">
+      <c r="B53" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="72" t="s">
+      <c r="E53" s="80" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:5">
-      <c r="A54" s="50">
+      <c r="A54" s="58">
         <v>52</v>
       </c>
-      <c r="B54" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="71" t="s">
+      <c r="B54" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="72" t="s">
+      <c r="E54" s="80" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:5">
-      <c r="A55" s="50">
+      <c r="A55" s="58">
         <v>53</v>
       </c>
-      <c r="B55" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="71" t="s">
+      <c r="B55" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="72" t="s">
+      <c r="E55" s="80" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:5">
-      <c r="A56" s="50">
+      <c r="A56" s="58">
         <v>54</v>
       </c>
-      <c r="B56" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="71" t="s">
+      <c r="B56" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="80" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:5">
-      <c r="A57" s="50">
+      <c r="A57" s="58">
         <v>55</v>
       </c>
-      <c r="B57" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="71" t="s">
+      <c r="B57" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="72" t="s">
+      <c r="E57" s="80" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:5">
-      <c r="A58" s="50">
+      <c r="A58" s="58">
         <v>56</v>
       </c>
-      <c r="B58" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="71" t="s">
+      <c r="B58" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="72" t="s">
+      <c r="E58" s="80" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1"/>
-    <row r="1048373" s="64" customFormat="1" spans="1:5">
-      <c r="A1048373" s="73"/>
-      <c r="B1048373" s="73"/>
-      <c r="D1048373" s="73"/>
-      <c r="E1048373" s="73"/>
-    </row>
-    <row r="1048374" s="64" customFormat="1" spans="1:5">
-      <c r="A1048374" s="73"/>
-      <c r="B1048374" s="73"/>
-      <c r="D1048374" s="73"/>
-      <c r="E1048374" s="73"/>
-    </row>
-    <row r="1048375" s="64" customFormat="1" spans="1:5">
-      <c r="A1048375" s="73"/>
-      <c r="B1048375" s="73"/>
-      <c r="D1048375" s="73"/>
-      <c r="E1048375" s="73"/>
-    </row>
-    <row r="1048376" s="64" customFormat="1" spans="1:5">
-      <c r="A1048376" s="73"/>
-      <c r="B1048376" s="73"/>
-      <c r="D1048376" s="73"/>
-      <c r="E1048376" s="73"/>
-    </row>
-    <row r="1048377" s="64" customFormat="1" spans="1:5">
-      <c r="A1048377" s="73"/>
-      <c r="B1048377" s="73"/>
-      <c r="D1048377" s="73"/>
-      <c r="E1048377" s="73"/>
-    </row>
-    <row r="1048378" s="64" customFormat="1" spans="1:5">
-      <c r="A1048378" s="73"/>
-      <c r="B1048378" s="73"/>
-      <c r="D1048378" s="73"/>
-      <c r="E1048378" s="73"/>
-    </row>
-    <row r="1048379" s="64" customFormat="1" spans="1:5">
-      <c r="A1048379" s="73"/>
-      <c r="B1048379" s="73"/>
-      <c r="D1048379" s="73"/>
-      <c r="E1048379" s="73"/>
-    </row>
-    <row r="1048380" s="64" customFormat="1" spans="1:5">
-      <c r="A1048380" s="73"/>
-      <c r="B1048380" s="73"/>
-      <c r="D1048380" s="73"/>
-      <c r="E1048380" s="73"/>
-    </row>
-    <row r="1048381" s="64" customFormat="1" spans="1:5">
-      <c r="A1048381" s="73"/>
-      <c r="B1048381" s="73"/>
-      <c r="D1048381" s="73"/>
-      <c r="E1048381" s="73"/>
-    </row>
-    <row r="1048382" s="64" customFormat="1" spans="1:5">
-      <c r="A1048382" s="73"/>
-      <c r="B1048382" s="73"/>
-      <c r="D1048382" s="73"/>
-      <c r="E1048382" s="73"/>
-    </row>
-    <row r="1048383" s="64" customFormat="1" spans="1:5">
-      <c r="A1048383" s="73"/>
-      <c r="B1048383" s="73"/>
-      <c r="D1048383" s="73"/>
-      <c r="E1048383" s="73"/>
-    </row>
-    <row r="1048384" s="64" customFormat="1" spans="1:5">
-      <c r="A1048384" s="73"/>
-      <c r="B1048384" s="73"/>
-      <c r="D1048384" s="73"/>
-      <c r="E1048384" s="73"/>
-    </row>
-    <row r="1048385" s="64" customFormat="1" spans="1:5">
-      <c r="A1048385" s="73"/>
-      <c r="B1048385" s="73"/>
-      <c r="D1048385" s="73"/>
-      <c r="E1048385" s="73"/>
-    </row>
-    <row r="1048386" s="64" customFormat="1" spans="1:5">
-      <c r="A1048386" s="73"/>
-      <c r="B1048386" s="73"/>
-      <c r="D1048386" s="73"/>
-      <c r="E1048386" s="73"/>
-    </row>
-    <row r="1048387" s="64" customFormat="1" spans="1:5">
-      <c r="A1048387" s="73"/>
-      <c r="B1048387" s="73"/>
-      <c r="D1048387" s="73"/>
-      <c r="E1048387" s="73"/>
-    </row>
-    <row r="1048388" s="64" customFormat="1" spans="1:5">
-      <c r="A1048388" s="73"/>
-      <c r="B1048388" s="73"/>
-      <c r="D1048388" s="73"/>
-      <c r="E1048388" s="73"/>
-    </row>
-    <row r="1048389" s="64" customFormat="1" spans="1:5">
-      <c r="A1048389" s="73"/>
-      <c r="B1048389" s="73"/>
-      <c r="D1048389" s="73"/>
-      <c r="E1048389" s="73"/>
-    </row>
-    <row r="1048390" s="64" customFormat="1" spans="1:5">
-      <c r="A1048390" s="73"/>
-      <c r="B1048390" s="73"/>
-      <c r="D1048390" s="73"/>
-      <c r="E1048390" s="73"/>
-    </row>
-    <row r="1048391" s="64" customFormat="1" spans="1:5">
-      <c r="A1048391" s="73"/>
-      <c r="B1048391" s="73"/>
-      <c r="D1048391" s="73"/>
-      <c r="E1048391" s="73"/>
-    </row>
-    <row r="1048392" s="64" customFormat="1" spans="1:5">
-      <c r="A1048392" s="73"/>
-      <c r="B1048392" s="73"/>
-      <c r="D1048392" s="73"/>
-      <c r="E1048392" s="73"/>
-    </row>
-    <row r="1048393" s="64" customFormat="1" spans="1:5">
-      <c r="A1048393" s="73"/>
-      <c r="B1048393" s="73"/>
-      <c r="D1048393" s="73"/>
-      <c r="E1048393" s="73"/>
-    </row>
-    <row r="1048394" s="64" customFormat="1" spans="1:5">
-      <c r="A1048394" s="73"/>
-      <c r="B1048394" s="73"/>
-      <c r="D1048394" s="73"/>
-      <c r="E1048394" s="73"/>
-    </row>
-    <row r="1048395" s="64" customFormat="1" spans="1:5">
-      <c r="A1048395" s="73"/>
-      <c r="B1048395" s="73"/>
-      <c r="D1048395" s="73"/>
-      <c r="E1048395" s="73"/>
-    </row>
-    <row r="1048396" s="64" customFormat="1" spans="1:5">
-      <c r="A1048396" s="73"/>
-      <c r="B1048396" s="73"/>
-      <c r="D1048396" s="73"/>
-      <c r="E1048396" s="73"/>
-    </row>
-    <row r="1048397" s="64" customFormat="1" spans="1:5">
-      <c r="A1048397" s="73"/>
-      <c r="B1048397" s="73"/>
-      <c r="D1048397" s="73"/>
-      <c r="E1048397" s="73"/>
-    </row>
-    <row r="1048398" s="64" customFormat="1" spans="1:5">
-      <c r="A1048398" s="73"/>
-      <c r="B1048398" s="73"/>
-      <c r="D1048398" s="73"/>
-      <c r="E1048398" s="73"/>
-    </row>
-    <row r="1048399" s="64" customFormat="1" spans="1:5">
-      <c r="A1048399" s="73"/>
-      <c r="B1048399" s="73"/>
-      <c r="D1048399" s="73"/>
-      <c r="E1048399" s="73"/>
-    </row>
-    <row r="1048400" s="64" customFormat="1" spans="1:5">
-      <c r="A1048400" s="73"/>
-      <c r="B1048400" s="73"/>
-      <c r="D1048400" s="73"/>
-      <c r="E1048400" s="73"/>
-    </row>
-    <row r="1048401" s="64" customFormat="1" spans="1:5">
-      <c r="A1048401" s="73"/>
-      <c r="B1048401" s="73"/>
-      <c r="D1048401" s="73"/>
-      <c r="E1048401" s="73"/>
-    </row>
-    <row r="1048402" s="64" customFormat="1" spans="1:5">
-      <c r="A1048402" s="73"/>
-      <c r="B1048402" s="73"/>
-      <c r="D1048402" s="73"/>
-      <c r="E1048402" s="73"/>
-    </row>
-    <row r="1048403" s="64" customFormat="1" spans="1:5">
-      <c r="A1048403" s="73"/>
-      <c r="B1048403" s="73"/>
-      <c r="D1048403" s="73"/>
-      <c r="E1048403" s="73"/>
-    </row>
-    <row r="1048404" s="64" customFormat="1" spans="1:5">
-      <c r="A1048404" s="73"/>
-      <c r="B1048404" s="73"/>
-      <c r="D1048404" s="73"/>
-      <c r="E1048404" s="73"/>
-    </row>
-    <row r="1048405" s="64" customFormat="1" spans="1:5">
-      <c r="A1048405" s="73"/>
-      <c r="B1048405" s="73"/>
-      <c r="D1048405" s="73"/>
-      <c r="E1048405" s="73"/>
-    </row>
-    <row r="1048406" s="64" customFormat="1" spans="1:5">
-      <c r="A1048406" s="73"/>
-      <c r="B1048406" s="73"/>
-      <c r="D1048406" s="73"/>
-      <c r="E1048406" s="73"/>
-    </row>
-    <row r="1048407" s="64" customFormat="1" spans="1:5">
-      <c r="A1048407" s="73"/>
-      <c r="B1048407" s="73"/>
-      <c r="D1048407" s="73"/>
-      <c r="E1048407" s="73"/>
-    </row>
-    <row r="1048408" s="64" customFormat="1" spans="1:5">
-      <c r="A1048408" s="73"/>
-      <c r="B1048408" s="73"/>
-      <c r="D1048408" s="73"/>
-      <c r="E1048408" s="73"/>
-    </row>
-    <row r="1048409" s="64" customFormat="1" spans="1:5">
-      <c r="A1048409" s="73"/>
-      <c r="B1048409" s="73"/>
-      <c r="D1048409" s="73"/>
-      <c r="E1048409" s="73"/>
-    </row>
-    <row r="1048410" s="64" customFormat="1" spans="1:5">
-      <c r="A1048410" s="73"/>
-      <c r="B1048410" s="73"/>
-      <c r="D1048410" s="73"/>
-      <c r="E1048410" s="73"/>
-    </row>
-    <row r="1048411" s="64" customFormat="1" spans="1:5">
-      <c r="A1048411" s="73"/>
-      <c r="B1048411" s="73"/>
-      <c r="D1048411" s="73"/>
-      <c r="E1048411" s="73"/>
-    </row>
-    <row r="1048412" s="64" customFormat="1" spans="1:5">
-      <c r="A1048412" s="73"/>
-      <c r="B1048412" s="73"/>
-      <c r="D1048412" s="73"/>
-      <c r="E1048412" s="73"/>
-    </row>
-    <row r="1048413" s="64" customFormat="1" spans="1:5">
-      <c r="A1048413" s="73"/>
-      <c r="B1048413" s="73"/>
-      <c r="D1048413" s="73"/>
-      <c r="E1048413" s="73"/>
-    </row>
-    <row r="1048414" s="64" customFormat="1" spans="1:5">
-      <c r="A1048414" s="73"/>
-      <c r="B1048414" s="73"/>
-      <c r="D1048414" s="73"/>
-      <c r="E1048414" s="73"/>
-    </row>
-    <row r="1048415" s="64" customFormat="1" spans="1:5">
-      <c r="A1048415" s="73"/>
-      <c r="B1048415" s="73"/>
-      <c r="D1048415" s="73"/>
-      <c r="E1048415" s="73"/>
-    </row>
-    <row r="1048416" s="64" customFormat="1" spans="1:5">
-      <c r="A1048416" s="73"/>
-      <c r="B1048416" s="73"/>
-      <c r="D1048416" s="73"/>
-      <c r="E1048416" s="73"/>
-    </row>
-    <row r="1048417" s="64" customFormat="1" spans="1:5">
-      <c r="A1048417" s="73"/>
-      <c r="B1048417" s="73"/>
-      <c r="D1048417" s="73"/>
-      <c r="E1048417" s="73"/>
-    </row>
-    <row r="1048418" s="64" customFormat="1" spans="1:5">
-      <c r="A1048418" s="73"/>
-      <c r="B1048418" s="73"/>
-      <c r="D1048418" s="73"/>
-      <c r="E1048418" s="73"/>
-    </row>
-    <row r="1048419" s="64" customFormat="1" spans="1:5">
-      <c r="A1048419" s="73"/>
-      <c r="B1048419" s="73"/>
-      <c r="D1048419" s="73"/>
-      <c r="E1048419" s="73"/>
-    </row>
-    <row r="1048420" s="64" customFormat="1" spans="1:5">
-      <c r="A1048420" s="73"/>
-      <c r="B1048420" s="73"/>
-      <c r="D1048420" s="73"/>
-      <c r="E1048420" s="73"/>
-    </row>
-    <row r="1048421" s="64" customFormat="1" spans="1:5">
-      <c r="A1048421" s="73"/>
-      <c r="B1048421" s="73"/>
-      <c r="D1048421" s="73"/>
-      <c r="E1048421" s="73"/>
-    </row>
-    <row r="1048422" s="64" customFormat="1" spans="1:5">
-      <c r="A1048422" s="73"/>
-      <c r="B1048422" s="73"/>
-      <c r="D1048422" s="73"/>
-      <c r="E1048422" s="73"/>
-    </row>
-    <row r="1048423" s="64" customFormat="1" spans="1:5">
-      <c r="A1048423" s="73"/>
-      <c r="B1048423" s="73"/>
-      <c r="D1048423" s="73"/>
-      <c r="E1048423" s="73"/>
-    </row>
-    <row r="1048424" s="64" customFormat="1" spans="1:5">
-      <c r="A1048424" s="73"/>
-      <c r="B1048424" s="73"/>
-      <c r="D1048424" s="73"/>
-      <c r="E1048424" s="73"/>
-    </row>
-    <row r="1048425" s="64" customFormat="1" spans="1:5">
-      <c r="A1048425" s="73"/>
-      <c r="B1048425" s="73"/>
-      <c r="D1048425" s="73"/>
-      <c r="E1048425" s="73"/>
-    </row>
-    <row r="1048426" s="64" customFormat="1" spans="1:5">
-      <c r="A1048426" s="73"/>
-      <c r="B1048426" s="73"/>
-      <c r="D1048426" s="73"/>
-      <c r="E1048426" s="73"/>
-    </row>
-    <row r="1048427" s="64" customFormat="1" spans="1:5">
-      <c r="A1048427" s="73"/>
-      <c r="B1048427" s="73"/>
-      <c r="D1048427" s="73"/>
-      <c r="E1048427" s="73"/>
-    </row>
-    <row r="1048428" s="64" customFormat="1" spans="1:5">
-      <c r="A1048428" s="73"/>
-      <c r="B1048428" s="73"/>
-      <c r="D1048428" s="73"/>
-      <c r="E1048428" s="73"/>
-    </row>
-    <row r="1048429" s="64" customFormat="1" spans="1:5">
-      <c r="A1048429" s="73"/>
-      <c r="B1048429" s="73"/>
-      <c r="D1048429" s="73"/>
-      <c r="E1048429" s="73"/>
-    </row>
-    <row r="1048430" s="64" customFormat="1" spans="1:5">
-      <c r="A1048430" s="73"/>
-      <c r="B1048430" s="73"/>
-      <c r="D1048430" s="73"/>
-      <c r="E1048430" s="73"/>
-    </row>
-    <row r="1048431" s="64" customFormat="1" spans="1:5">
-      <c r="A1048431" s="73"/>
-      <c r="B1048431" s="73"/>
-      <c r="D1048431" s="73"/>
-      <c r="E1048431" s="73"/>
-    </row>
-    <row r="1048432" s="64" customFormat="1" spans="1:5">
-      <c r="A1048432" s="73"/>
-      <c r="B1048432" s="73"/>
-      <c r="D1048432" s="73"/>
-      <c r="E1048432" s="73"/>
-    </row>
-    <row r="1048433" s="64" customFormat="1" spans="1:5">
-      <c r="A1048433" s="73"/>
-      <c r="B1048433" s="73"/>
-      <c r="D1048433" s="73"/>
-      <c r="E1048433" s="73"/>
-    </row>
-    <row r="1048434" s="64" customFormat="1" spans="1:5">
-      <c r="A1048434" s="73"/>
-      <c r="B1048434" s="73"/>
-      <c r="D1048434" s="73"/>
-      <c r="E1048434" s="73"/>
-    </row>
-    <row r="1048435" s="64" customFormat="1" spans="1:5">
-      <c r="A1048435" s="73"/>
-      <c r="B1048435" s="73"/>
-      <c r="D1048435" s="73"/>
-      <c r="E1048435" s="73"/>
-    </row>
-    <row r="1048436" s="64" customFormat="1" spans="1:5">
-      <c r="A1048436" s="73"/>
-      <c r="B1048436" s="73"/>
-      <c r="D1048436" s="73"/>
-      <c r="E1048436" s="73"/>
-    </row>
-    <row r="1048437" s="64" customFormat="1" spans="1:5">
-      <c r="A1048437" s="73"/>
-      <c r="B1048437" s="73"/>
-      <c r="D1048437" s="73"/>
-      <c r="E1048437" s="73"/>
-    </row>
-    <row r="1048438" s="64" customFormat="1" spans="1:5">
-      <c r="A1048438" s="73"/>
-      <c r="B1048438" s="73"/>
-      <c r="D1048438" s="73"/>
-      <c r="E1048438" s="73"/>
-    </row>
-    <row r="1048439" s="64" customFormat="1" spans="1:5">
-      <c r="A1048439" s="73"/>
-      <c r="B1048439" s="73"/>
-      <c r="D1048439" s="73"/>
-      <c r="E1048439" s="73"/>
-    </row>
-    <row r="1048440" s="64" customFormat="1" spans="1:5">
-      <c r="A1048440" s="73"/>
-      <c r="B1048440" s="73"/>
-      <c r="D1048440" s="73"/>
-      <c r="E1048440" s="73"/>
-    </row>
-    <row r="1048441" s="64" customFormat="1" spans="1:5">
-      <c r="A1048441" s="73"/>
-      <c r="B1048441" s="73"/>
-      <c r="D1048441" s="73"/>
-      <c r="E1048441" s="73"/>
-    </row>
-    <row r="1048442" s="64" customFormat="1" spans="1:5">
-      <c r="A1048442" s="73"/>
-      <c r="B1048442" s="73"/>
-      <c r="D1048442" s="73"/>
-      <c r="E1048442" s="73"/>
-    </row>
-    <row r="1048443" s="64" customFormat="1" spans="1:5">
-      <c r="A1048443" s="73"/>
-      <c r="B1048443" s="73"/>
-      <c r="D1048443" s="73"/>
-      <c r="E1048443" s="73"/>
-    </row>
-    <row r="1048444" s="64" customFormat="1" spans="1:5">
-      <c r="A1048444" s="73"/>
-      <c r="B1048444" s="73"/>
-      <c r="D1048444" s="73"/>
-      <c r="E1048444" s="73"/>
-    </row>
-    <row r="1048445" s="64" customFormat="1" spans="1:5">
-      <c r="A1048445" s="73"/>
-      <c r="B1048445" s="73"/>
-      <c r="D1048445" s="73"/>
-      <c r="E1048445" s="73"/>
-    </row>
-    <row r="1048446" s="64" customFormat="1" spans="1:5">
-      <c r="A1048446" s="73"/>
-      <c r="B1048446" s="73"/>
-      <c r="D1048446" s="73"/>
-      <c r="E1048446" s="73"/>
-    </row>
-    <row r="1048447" s="64" customFormat="1" spans="1:5">
-      <c r="A1048447" s="73"/>
-      <c r="B1048447" s="73"/>
-      <c r="D1048447" s="73"/>
-      <c r="E1048447" s="73"/>
-    </row>
-    <row r="1048448" s="64" customFormat="1" spans="1:5">
-      <c r="A1048448" s="73"/>
-      <c r="B1048448" s="73"/>
-      <c r="D1048448" s="73"/>
-      <c r="E1048448" s="73"/>
-    </row>
-    <row r="1048449" s="64" customFormat="1" spans="1:5">
-      <c r="A1048449" s="73"/>
-      <c r="B1048449" s="73"/>
-      <c r="D1048449" s="73"/>
-      <c r="E1048449" s="73"/>
-    </row>
-    <row r="1048450" s="64" customFormat="1" spans="1:5">
-      <c r="A1048450" s="73"/>
-      <c r="B1048450" s="73"/>
-      <c r="D1048450" s="73"/>
-      <c r="E1048450" s="73"/>
-    </row>
-    <row r="1048451" s="64" customFormat="1" spans="1:5">
-      <c r="A1048451" s="73"/>
-      <c r="B1048451" s="73"/>
-      <c r="D1048451" s="73"/>
-      <c r="E1048451" s="73"/>
-    </row>
-    <row r="1048452" s="64" customFormat="1" spans="1:5">
-      <c r="A1048452" s="73"/>
-      <c r="B1048452" s="73"/>
-      <c r="D1048452" s="73"/>
-      <c r="E1048452" s="73"/>
-    </row>
-    <row r="1048453" s="64" customFormat="1" spans="1:5">
-      <c r="A1048453" s="73"/>
-      <c r="B1048453" s="73"/>
-      <c r="D1048453" s="73"/>
-      <c r="E1048453" s="73"/>
-    </row>
-    <row r="1048454" s="64" customFormat="1" spans="1:5">
-      <c r="A1048454" s="73"/>
-      <c r="B1048454" s="73"/>
-      <c r="D1048454" s="73"/>
-      <c r="E1048454" s="73"/>
-    </row>
-    <row r="1048455" s="64" customFormat="1" spans="1:5">
-      <c r="A1048455" s="73"/>
-      <c r="B1048455" s="73"/>
-      <c r="D1048455" s="73"/>
-      <c r="E1048455" s="73"/>
-    </row>
-    <row r="1048456" s="64" customFormat="1" spans="1:5">
-      <c r="A1048456" s="73"/>
-      <c r="B1048456" s="73"/>
-      <c r="D1048456" s="73"/>
-      <c r="E1048456" s="73"/>
-    </row>
-    <row r="1048457" s="64" customFormat="1" spans="1:5">
-      <c r="A1048457" s="73"/>
-      <c r="B1048457" s="73"/>
-      <c r="D1048457" s="73"/>
-      <c r="E1048457" s="73"/>
-    </row>
-    <row r="1048458" s="64" customFormat="1" spans="1:5">
-      <c r="A1048458" s="73"/>
-      <c r="B1048458" s="73"/>
-      <c r="D1048458" s="73"/>
-      <c r="E1048458" s="73"/>
-    </row>
-    <row r="1048459" s="64" customFormat="1" spans="1:5">
-      <c r="A1048459" s="73"/>
-      <c r="B1048459" s="73"/>
-      <c r="D1048459" s="73"/>
-      <c r="E1048459" s="73"/>
-    </row>
-    <row r="1048460" s="64" customFormat="1" spans="1:5">
-      <c r="A1048460" s="73"/>
-      <c r="B1048460" s="73"/>
-      <c r="D1048460" s="73"/>
-      <c r="E1048460" s="73"/>
-    </row>
-    <row r="1048461" s="64" customFormat="1" spans="1:5">
-      <c r="A1048461" s="73"/>
-      <c r="B1048461" s="73"/>
-      <c r="D1048461" s="73"/>
-      <c r="E1048461" s="73"/>
-    </row>
-    <row r="1048462" s="64" customFormat="1" spans="1:5">
-      <c r="A1048462" s="73"/>
-      <c r="B1048462" s="73"/>
-      <c r="D1048462" s="73"/>
-      <c r="E1048462" s="73"/>
-    </row>
-    <row r="1048463" s="64" customFormat="1" spans="1:5">
-      <c r="A1048463" s="73"/>
-      <c r="B1048463" s="73"/>
-      <c r="D1048463" s="73"/>
-      <c r="E1048463" s="73"/>
-    </row>
-    <row r="1048464" s="64" customFormat="1" spans="1:5">
-      <c r="A1048464" s="73"/>
-      <c r="B1048464" s="73"/>
-      <c r="D1048464" s="73"/>
-      <c r="E1048464" s="73"/>
-    </row>
-    <row r="1048465" s="64" customFormat="1" spans="1:5">
-      <c r="A1048465" s="73"/>
-      <c r="B1048465" s="73"/>
-      <c r="D1048465" s="73"/>
-      <c r="E1048465" s="73"/>
-    </row>
-    <row r="1048466" s="64" customFormat="1" spans="1:5">
-      <c r="A1048466" s="73"/>
-      <c r="B1048466" s="73"/>
-      <c r="D1048466" s="73"/>
-      <c r="E1048466" s="73"/>
-    </row>
-    <row r="1048467" s="64" customFormat="1" spans="1:5">
-      <c r="A1048467" s="73"/>
-      <c r="B1048467" s="73"/>
-      <c r="D1048467" s="73"/>
-      <c r="E1048467" s="73"/>
-    </row>
-    <row r="1048468" s="64" customFormat="1" spans="1:5">
-      <c r="A1048468" s="73"/>
-      <c r="B1048468" s="73"/>
-      <c r="D1048468" s="73"/>
-      <c r="E1048468" s="73"/>
-    </row>
-    <row r="1048469" s="64" customFormat="1" spans="1:5">
-      <c r="A1048469" s="73"/>
-      <c r="B1048469" s="73"/>
-      <c r="D1048469" s="73"/>
-      <c r="E1048469" s="73"/>
-    </row>
-    <row r="1048470" s="64" customFormat="1" spans="1:5">
-      <c r="A1048470" s="73"/>
-      <c r="B1048470" s="73"/>
-      <c r="D1048470" s="73"/>
-      <c r="E1048470" s="73"/>
-    </row>
-    <row r="1048471" s="64" customFormat="1" spans="1:5">
-      <c r="A1048471" s="73"/>
-      <c r="B1048471" s="73"/>
-      <c r="D1048471" s="73"/>
-      <c r="E1048471" s="73"/>
-    </row>
-    <row r="1048472" s="64" customFormat="1" spans="1:5">
-      <c r="A1048472" s="73"/>
-      <c r="B1048472" s="73"/>
-      <c r="D1048472" s="73"/>
-      <c r="E1048472" s="73"/>
-    </row>
-    <row r="1048473" s="64" customFormat="1" spans="1:5">
-      <c r="A1048473" s="73"/>
-      <c r="B1048473" s="73"/>
-      <c r="D1048473" s="73"/>
-      <c r="E1048473" s="73"/>
-    </row>
-    <row r="1048474" s="64" customFormat="1" spans="1:5">
-      <c r="A1048474" s="73"/>
-      <c r="B1048474" s="73"/>
-      <c r="D1048474" s="73"/>
-      <c r="E1048474" s="73"/>
-    </row>
-    <row r="1048475" s="64" customFormat="1" spans="1:5">
-      <c r="A1048475" s="73"/>
-      <c r="B1048475" s="73"/>
-      <c r="D1048475" s="73"/>
-      <c r="E1048475" s="73"/>
-    </row>
-    <row r="1048476" s="64" customFormat="1" spans="1:5">
-      <c r="A1048476" s="73"/>
-      <c r="B1048476" s="73"/>
-      <c r="D1048476" s="73"/>
-      <c r="E1048476" s="73"/>
-    </row>
-    <row r="1048477" s="64" customFormat="1" spans="1:5">
-      <c r="A1048477" s="73"/>
-      <c r="B1048477" s="73"/>
-      <c r="D1048477" s="73"/>
-      <c r="E1048477" s="73"/>
-    </row>
-    <row r="1048478" s="64" customFormat="1" spans="1:5">
-      <c r="A1048478" s="73"/>
-      <c r="B1048478" s="73"/>
-      <c r="D1048478" s="73"/>
-      <c r="E1048478" s="73"/>
-    </row>
-    <row r="1048479" s="64" customFormat="1" spans="1:5">
-      <c r="A1048479" s="73"/>
-      <c r="B1048479" s="73"/>
-      <c r="D1048479" s="73"/>
-      <c r="E1048479" s="73"/>
-    </row>
-    <row r="1048480" s="64" customFormat="1" spans="1:5">
-      <c r="A1048480" s="73"/>
-      <c r="B1048480" s="73"/>
-      <c r="D1048480" s="73"/>
-      <c r="E1048480" s="73"/>
-    </row>
-    <row r="1048481" s="64" customFormat="1" spans="1:5">
-      <c r="A1048481" s="73"/>
-      <c r="B1048481" s="73"/>
-      <c r="D1048481" s="73"/>
-      <c r="E1048481" s="73"/>
-    </row>
-    <row r="1048482" s="64" customFormat="1" spans="1:5">
-      <c r="A1048482" s="73"/>
-      <c r="B1048482" s="73"/>
-      <c r="D1048482" s="73"/>
-      <c r="E1048482" s="73"/>
-    </row>
-    <row r="1048483" s="64" customFormat="1" spans="1:5">
-      <c r="A1048483" s="73"/>
-      <c r="B1048483" s="73"/>
-      <c r="D1048483" s="73"/>
-      <c r="E1048483" s="73"/>
-    </row>
-    <row r="1048484" s="64" customFormat="1" spans="1:5">
-      <c r="A1048484" s="73"/>
-      <c r="B1048484" s="73"/>
-      <c r="D1048484" s="73"/>
-      <c r="E1048484" s="73"/>
-    </row>
-    <row r="1048485" s="64" customFormat="1" spans="1:5">
-      <c r="A1048485" s="73"/>
-      <c r="B1048485" s="73"/>
-      <c r="D1048485" s="73"/>
-      <c r="E1048485" s="73"/>
-    </row>
-    <row r="1048486" s="64" customFormat="1" spans="1:5">
-      <c r="A1048486" s="73"/>
-      <c r="B1048486" s="73"/>
-      <c r="D1048486" s="73"/>
-      <c r="E1048486" s="73"/>
-    </row>
-    <row r="1048487" s="64" customFormat="1" spans="1:5">
-      <c r="A1048487" s="73"/>
-      <c r="B1048487" s="73"/>
-      <c r="D1048487" s="73"/>
-      <c r="E1048487" s="73"/>
-    </row>
-    <row r="1048488" s="64" customFormat="1" spans="1:5">
-      <c r="A1048488" s="73"/>
-      <c r="B1048488" s="73"/>
-      <c r="D1048488" s="73"/>
-      <c r="E1048488" s="73"/>
-    </row>
-    <row r="1048489" s="64" customFormat="1" spans="1:5">
-      <c r="A1048489" s="73"/>
-      <c r="B1048489" s="73"/>
-      <c r="D1048489" s="73"/>
-      <c r="E1048489" s="73"/>
-    </row>
-    <row r="1048490" s="64" customFormat="1" spans="1:5">
-      <c r="A1048490" s="73"/>
-      <c r="B1048490" s="73"/>
-      <c r="D1048490" s="73"/>
-      <c r="E1048490" s="73"/>
-    </row>
-    <row r="1048491" s="64" customFormat="1" spans="1:5">
-      <c r="A1048491" s="73"/>
-      <c r="B1048491" s="73"/>
-      <c r="D1048491" s="73"/>
-      <c r="E1048491" s="73"/>
-    </row>
-    <row r="1048492" s="64" customFormat="1" spans="1:5">
-      <c r="A1048492" s="73"/>
-      <c r="B1048492" s="73"/>
-      <c r="D1048492" s="73"/>
-      <c r="E1048492" s="73"/>
-    </row>
-    <row r="1048493" s="64" customFormat="1" spans="1:5">
-      <c r="A1048493" s="73"/>
-      <c r="B1048493" s="73"/>
-      <c r="D1048493" s="73"/>
-      <c r="E1048493" s="73"/>
-    </row>
-    <row r="1048494" s="64" customFormat="1" spans="1:5">
-      <c r="A1048494" s="73"/>
-      <c r="B1048494" s="73"/>
-      <c r="D1048494" s="73"/>
-      <c r="E1048494" s="73"/>
-    </row>
-    <row r="1048495" s="64" customFormat="1" spans="1:5">
-      <c r="A1048495" s="73"/>
-      <c r="B1048495" s="73"/>
-      <c r="D1048495" s="73"/>
-      <c r="E1048495" s="73"/>
-    </row>
-    <row r="1048496" s="64" customFormat="1" spans="1:5">
-      <c r="A1048496" s="73"/>
-      <c r="B1048496" s="73"/>
-      <c r="D1048496" s="73"/>
-      <c r="E1048496" s="73"/>
-    </row>
-    <row r="1048497" s="64" customFormat="1" spans="1:5">
-      <c r="A1048497" s="73"/>
-      <c r="B1048497" s="73"/>
-      <c r="D1048497" s="73"/>
-      <c r="E1048497" s="73"/>
-    </row>
-    <row r="1048498" s="64" customFormat="1" spans="1:5">
-      <c r="A1048498" s="73"/>
-      <c r="B1048498" s="73"/>
-      <c r="D1048498" s="73"/>
-      <c r="E1048498" s="73"/>
-    </row>
-    <row r="1048499" s="64" customFormat="1" spans="1:5">
-      <c r="A1048499" s="73"/>
-      <c r="B1048499" s="73"/>
-      <c r="D1048499" s="73"/>
-      <c r="E1048499" s="73"/>
-    </row>
-    <row r="1048500" s="64" customFormat="1" spans="1:5">
-      <c r="A1048500" s="73"/>
-      <c r="B1048500" s="73"/>
-      <c r="D1048500" s="73"/>
-      <c r="E1048500" s="73"/>
-    </row>
-    <row r="1048501" s="64" customFormat="1" spans="1:5">
-      <c r="A1048501" s="73"/>
-      <c r="B1048501" s="73"/>
-      <c r="D1048501" s="73"/>
-      <c r="E1048501" s="73"/>
-    </row>
-    <row r="1048502" s="64" customFormat="1" spans="1:5">
-      <c r="A1048502" s="73"/>
-      <c r="B1048502" s="73"/>
-      <c r="D1048502" s="73"/>
-      <c r="E1048502" s="73"/>
-    </row>
-    <row r="1048503" s="64" customFormat="1" spans="1:5">
-      <c r="A1048503" s="73"/>
-      <c r="B1048503" s="73"/>
-      <c r="D1048503" s="73"/>
-      <c r="E1048503" s="73"/>
-    </row>
-    <row r="1048504" s="64" customFormat="1" spans="1:5">
-      <c r="A1048504" s="73"/>
-      <c r="B1048504" s="73"/>
-      <c r="D1048504" s="73"/>
-      <c r="E1048504" s="73"/>
-    </row>
-    <row r="1048505" s="64" customFormat="1" spans="1:5">
-      <c r="A1048505" s="73"/>
-      <c r="B1048505" s="73"/>
-      <c r="D1048505" s="73"/>
-      <c r="E1048505" s="73"/>
-    </row>
-    <row r="1048506" s="64" customFormat="1" spans="1:5">
-      <c r="A1048506" s="73"/>
-      <c r="B1048506" s="73"/>
-      <c r="D1048506" s="73"/>
-      <c r="E1048506" s="73"/>
-    </row>
-    <row r="1048507" s="64" customFormat="1" spans="1:5">
-      <c r="A1048507" s="73"/>
-      <c r="B1048507" s="73"/>
-      <c r="D1048507" s="73"/>
-      <c r="E1048507" s="73"/>
-    </row>
-    <row r="1048508" s="64" customFormat="1" spans="1:5">
-      <c r="A1048508" s="73"/>
-      <c r="B1048508" s="73"/>
-      <c r="D1048508" s="73"/>
-      <c r="E1048508" s="73"/>
-    </row>
-    <row r="1048509" s="64" customFormat="1" spans="1:5">
-      <c r="A1048509" s="73"/>
-      <c r="B1048509" s="73"/>
-      <c r="D1048509" s="73"/>
-      <c r="E1048509" s="73"/>
-    </row>
-    <row r="1048510" s="64" customFormat="1" spans="1:5">
-      <c r="A1048510" s="73"/>
-      <c r="B1048510" s="73"/>
-      <c r="D1048510" s="73"/>
-      <c r="E1048510" s="73"/>
-    </row>
-    <row r="1048511" s="64" customFormat="1" spans="1:5">
-      <c r="A1048511" s="73"/>
-      <c r="B1048511" s="73"/>
-      <c r="D1048511" s="73"/>
-      <c r="E1048511" s="73"/>
-    </row>
-    <row r="1048512" s="64" customFormat="1" spans="1:5">
-      <c r="A1048512" s="73"/>
-      <c r="B1048512" s="73"/>
-      <c r="D1048512" s="73"/>
-      <c r="E1048512" s="73"/>
-    </row>
-    <row r="1048513" s="64" customFormat="1" spans="1:5">
-      <c r="A1048513" s="73"/>
-      <c r="B1048513" s="73"/>
-      <c r="D1048513" s="73"/>
-      <c r="E1048513" s="73"/>
-    </row>
-    <row r="1048514" s="64" customFormat="1" spans="1:5">
-      <c r="A1048514" s="73"/>
-      <c r="B1048514" s="73"/>
-      <c r="D1048514" s="73"/>
-      <c r="E1048514" s="73"/>
-    </row>
-    <row r="1048515" s="64" customFormat="1" spans="1:5">
-      <c r="A1048515" s="73"/>
-      <c r="B1048515" s="73"/>
-      <c r="D1048515" s="73"/>
-      <c r="E1048515" s="73"/>
-    </row>
-    <row r="1048516" s="64" customFormat="1" spans="1:5">
-      <c r="A1048516" s="73"/>
-      <c r="B1048516" s="73"/>
-      <c r="D1048516" s="73"/>
-      <c r="E1048516" s="73"/>
-    </row>
-    <row r="1048517" s="64" customFormat="1" spans="1:5">
-      <c r="A1048517" s="73"/>
-      <c r="B1048517" s="73"/>
-      <c r="D1048517" s="73"/>
-      <c r="E1048517" s="73"/>
-    </row>
-    <row r="1048518" s="64" customFormat="1" spans="1:5">
-      <c r="A1048518" s="73"/>
-      <c r="B1048518" s="73"/>
-      <c r="D1048518" s="73"/>
-      <c r="E1048518" s="73"/>
-    </row>
-    <row r="1048519" s="64" customFormat="1" spans="1:5">
-      <c r="A1048519" s="73"/>
-      <c r="B1048519" s="73"/>
-      <c r="D1048519" s="73"/>
-      <c r="E1048519" s="73"/>
-    </row>
-    <row r="1048520" s="64" customFormat="1" spans="1:5">
-      <c r="A1048520" s="73"/>
-      <c r="B1048520" s="73"/>
-      <c r="D1048520" s="73"/>
-      <c r="E1048520" s="73"/>
-    </row>
-    <row r="1048521" s="64" customFormat="1" spans="1:5">
-      <c r="A1048521" s="73"/>
-      <c r="B1048521" s="73"/>
-      <c r="D1048521" s="73"/>
-      <c r="E1048521" s="73"/>
-    </row>
-    <row r="1048522" s="64" customFormat="1" spans="1:5">
-      <c r="A1048522" s="73"/>
-      <c r="B1048522" s="73"/>
-      <c r="D1048522" s="73"/>
-      <c r="E1048522" s="73"/>
-    </row>
-    <row r="1048523" s="64" customFormat="1" spans="1:5">
-      <c r="A1048523" s="73"/>
-      <c r="B1048523" s="73"/>
-      <c r="D1048523" s="73"/>
-      <c r="E1048523" s="73"/>
-    </row>
-    <row r="1048524" s="64" customFormat="1" spans="1:5">
-      <c r="A1048524" s="73"/>
-      <c r="B1048524" s="73"/>
-      <c r="D1048524" s="73"/>
-      <c r="E1048524" s="73"/>
-    </row>
-    <row r="1048525" s="64" customFormat="1" spans="1:5">
-      <c r="A1048525" s="73"/>
-      <c r="B1048525" s="73"/>
-      <c r="D1048525" s="73"/>
-      <c r="E1048525" s="73"/>
-    </row>
-    <row r="1048526" s="64" customFormat="1" spans="1:5">
-      <c r="A1048526" s="73"/>
-      <c r="B1048526" s="73"/>
-      <c r="D1048526" s="73"/>
-      <c r="E1048526" s="73"/>
-    </row>
-    <row r="1048527" s="64" customFormat="1" spans="1:5">
-      <c r="A1048527" s="73"/>
-      <c r="B1048527" s="73"/>
-      <c r="D1048527" s="73"/>
-      <c r="E1048527" s="73"/>
-    </row>
-    <row r="1048528" s="64" customFormat="1" spans="1:5">
-      <c r="A1048528" s="73"/>
-      <c r="B1048528" s="73"/>
-      <c r="D1048528" s="73"/>
-      <c r="E1048528" s="73"/>
-    </row>
-    <row r="1048529" s="64" customFormat="1" spans="1:5">
-      <c r="A1048529" s="73"/>
-      <c r="B1048529" s="73"/>
-      <c r="D1048529" s="73"/>
-      <c r="E1048529" s="73"/>
-    </row>
-    <row r="1048530" s="64" customFormat="1" spans="1:5">
-      <c r="A1048530" s="73"/>
-      <c r="B1048530" s="73"/>
-      <c r="D1048530" s="73"/>
-      <c r="E1048530" s="73"/>
-    </row>
-    <row r="1048531" s="64" customFormat="1" spans="1:5">
-      <c r="A1048531" s="73"/>
-      <c r="B1048531" s="73"/>
-      <c r="D1048531" s="73"/>
-      <c r="E1048531" s="73"/>
-    </row>
-    <row r="1048532" s="64" customFormat="1" spans="1:5">
-      <c r="A1048532" s="73"/>
-      <c r="B1048532" s="73"/>
-      <c r="D1048532" s="73"/>
-      <c r="E1048532" s="73"/>
-    </row>
-    <row r="1048533" s="64" customFormat="1" spans="1:5">
-      <c r="A1048533" s="73"/>
-      <c r="B1048533" s="73"/>
-      <c r="D1048533" s="73"/>
-      <c r="E1048533" s="73"/>
-    </row>
-    <row r="1048534" s="64" customFormat="1" spans="1:5">
-      <c r="A1048534" s="73"/>
-      <c r="B1048534" s="73"/>
-      <c r="D1048534" s="73"/>
-      <c r="E1048534" s="73"/>
-    </row>
-    <row r="1048535" s="64" customFormat="1" spans="1:5">
-      <c r="A1048535" s="73"/>
-      <c r="B1048535" s="73"/>
-      <c r="D1048535" s="73"/>
-      <c r="E1048535" s="73"/>
-    </row>
-    <row r="1048536" s="64" customFormat="1" spans="1:5">
-      <c r="A1048536" s="73"/>
-      <c r="B1048536" s="73"/>
-      <c r="D1048536" s="73"/>
-      <c r="E1048536" s="73"/>
-    </row>
-    <row r="1048537" s="64" customFormat="1" spans="1:5">
-      <c r="A1048537" s="73"/>
-      <c r="B1048537" s="73"/>
-      <c r="D1048537" s="73"/>
-      <c r="E1048537" s="73"/>
-    </row>
-    <row r="1048538" s="64" customFormat="1" spans="1:5">
-      <c r="A1048538" s="73"/>
-      <c r="B1048538" s="73"/>
-      <c r="D1048538" s="73"/>
-      <c r="E1048538" s="73"/>
-    </row>
-    <row r="1048539" s="64" customFormat="1" spans="1:5">
-      <c r="A1048539" s="73"/>
-      <c r="B1048539" s="73"/>
-      <c r="D1048539" s="73"/>
-      <c r="E1048539" s="73"/>
-    </row>
-    <row r="1048540" s="64" customFormat="1" spans="1:5">
-      <c r="A1048540" s="73"/>
-      <c r="B1048540" s="73"/>
-      <c r="D1048540" s="73"/>
-      <c r="E1048540" s="73"/>
-    </row>
-    <row r="1048541" s="64" customFormat="1" spans="1:5">
-      <c r="A1048541" s="73"/>
-      <c r="B1048541" s="73"/>
-      <c r="D1048541" s="73"/>
-      <c r="E1048541" s="73"/>
-    </row>
-    <row r="1048542" s="64" customFormat="1" spans="1:5">
-      <c r="A1048542" s="73"/>
-      <c r="B1048542" s="73"/>
-      <c r="D1048542" s="73"/>
-      <c r="E1048542" s="73"/>
-    </row>
-    <row r="1048543" s="64" customFormat="1" spans="1:5">
-      <c r="A1048543" s="73"/>
-      <c r="B1048543" s="73"/>
-      <c r="D1048543" s="73"/>
-      <c r="E1048543" s="73"/>
-    </row>
-    <row r="1048544" s="64" customFormat="1" spans="1:5">
-      <c r="A1048544" s="73"/>
-      <c r="B1048544" s="73"/>
-      <c r="D1048544" s="73"/>
-      <c r="E1048544" s="73"/>
-    </row>
-    <row r="1048545" s="64" customFormat="1" spans="1:5">
-      <c r="A1048545" s="73"/>
-      <c r="B1048545" s="73"/>
-      <c r="D1048545" s="73"/>
-      <c r="E1048545" s="73"/>
-    </row>
-    <row r="1048546" s="64" customFormat="1" spans="1:5">
-      <c r="A1048546" s="73"/>
-      <c r="B1048546" s="73"/>
-      <c r="D1048546" s="73"/>
-      <c r="E1048546" s="73"/>
-    </row>
-    <row r="1048547" s="64" customFormat="1" spans="1:5">
-      <c r="A1048547" s="73"/>
-      <c r="B1048547" s="73"/>
-      <c r="D1048547" s="73"/>
-      <c r="E1048547" s="73"/>
-    </row>
-    <row r="1048548" s="64" customFormat="1" spans="1:5">
-      <c r="A1048548" s="73"/>
-      <c r="B1048548" s="73"/>
-      <c r="D1048548" s="73"/>
-      <c r="E1048548" s="73"/>
-    </row>
-    <row r="1048549" s="64" customFormat="1" spans="1:5">
-      <c r="A1048549" s="73"/>
-      <c r="B1048549" s="73"/>
-      <c r="D1048549" s="73"/>
-      <c r="E1048549" s="73"/>
-    </row>
-    <row r="1048550" s="64" customFormat="1" spans="1:5">
-      <c r="A1048550" s="73"/>
-      <c r="B1048550" s="73"/>
-      <c r="D1048550" s="73"/>
-      <c r="E1048550" s="73"/>
-    </row>
-    <row r="1048551" s="64" customFormat="1" spans="1:5">
-      <c r="A1048551" s="73"/>
-      <c r="B1048551" s="73"/>
-      <c r="D1048551" s="73"/>
-      <c r="E1048551" s="73"/>
-    </row>
-    <row r="1048552" s="64" customFormat="1" spans="1:5">
-      <c r="A1048552" s="73"/>
-      <c r="B1048552" s="73"/>
-      <c r="D1048552" s="73"/>
-      <c r="E1048552" s="73"/>
-    </row>
-    <row r="1048553" s="64" customFormat="1" spans="1:5">
-      <c r="A1048553" s="73"/>
-      <c r="B1048553" s="73"/>
-      <c r="D1048553" s="73"/>
-      <c r="E1048553" s="73"/>
-    </row>
-    <row r="1048554" s="64" customFormat="1" spans="1:5">
-      <c r="A1048554" s="73"/>
-      <c r="B1048554" s="73"/>
-      <c r="D1048554" s="73"/>
-      <c r="E1048554" s="73"/>
-    </row>
-    <row r="1048555" s="64" customFormat="1" spans="1:5">
-      <c r="A1048555" s="73"/>
-      <c r="B1048555" s="73"/>
-      <c r="D1048555" s="73"/>
-      <c r="E1048555" s="73"/>
-    </row>
-    <row r="1048556" s="64" customFormat="1" spans="1:5">
-      <c r="A1048556" s="73"/>
-      <c r="B1048556" s="73"/>
-      <c r="D1048556" s="73"/>
-      <c r="E1048556" s="73"/>
-    </row>
-    <row r="1048557" s="64" customFormat="1" spans="1:5">
-      <c r="A1048557" s="73"/>
-      <c r="B1048557" s="73"/>
-      <c r="D1048557" s="73"/>
-      <c r="E1048557" s="73"/>
-    </row>
-    <row r="1048558" s="64" customFormat="1" spans="1:5">
-      <c r="A1048558" s="73"/>
-      <c r="B1048558" s="73"/>
-      <c r="D1048558" s="73"/>
-      <c r="E1048558" s="73"/>
-    </row>
-    <row r="1048559" s="64" customFormat="1" spans="1:5">
-      <c r="A1048559" s="73"/>
-      <c r="B1048559" s="73"/>
-      <c r="D1048559" s="73"/>
-      <c r="E1048559" s="73"/>
-    </row>
-    <row r="1048560" s="64" customFormat="1" spans="1:5">
-      <c r="A1048560" s="73"/>
-      <c r="B1048560" s="73"/>
-      <c r="D1048560" s="73"/>
-      <c r="E1048560" s="73"/>
-    </row>
-    <row r="1048561" s="64" customFormat="1" spans="1:5">
-      <c r="A1048561" s="73"/>
-      <c r="B1048561" s="73"/>
-      <c r="D1048561" s="73"/>
-      <c r="E1048561" s="73"/>
-    </row>
-    <row r="1048562" s="64" customFormat="1" spans="1:5">
-      <c r="A1048562" s="73"/>
-      <c r="B1048562" s="73"/>
-      <c r="D1048562" s="73"/>
-      <c r="E1048562" s="73"/>
-    </row>
-    <row r="1048563" s="64" customFormat="1" spans="1:5">
-      <c r="A1048563" s="73"/>
-      <c r="B1048563" s="73"/>
-      <c r="D1048563" s="73"/>
-      <c r="E1048563" s="73"/>
-    </row>
-    <row r="1048564" s="64" customFormat="1" spans="1:5">
-      <c r="A1048564" s="73"/>
-      <c r="B1048564" s="73"/>
-      <c r="D1048564" s="73"/>
-      <c r="E1048564" s="73"/>
-    </row>
-    <row r="1048565" s="64" customFormat="1" spans="1:5">
-      <c r="A1048565" s="73"/>
-      <c r="B1048565" s="73"/>
-      <c r="D1048565" s="73"/>
-      <c r="E1048565" s="73"/>
-    </row>
-    <row r="1048566" s="64" customFormat="1" spans="1:5">
-      <c r="A1048566" s="73"/>
-      <c r="B1048566" s="73"/>
-      <c r="D1048566" s="73"/>
-      <c r="E1048566" s="73"/>
-    </row>
-    <row r="1048567" s="64" customFormat="1" spans="1:5">
-      <c r="A1048567" s="73"/>
-      <c r="B1048567" s="73"/>
-      <c r="D1048567" s="73"/>
-      <c r="E1048567" s="73"/>
-    </row>
-    <row r="1048568" s="64" customFormat="1" spans="1:5">
-      <c r="A1048568" s="73"/>
-      <c r="B1048568" s="73"/>
-      <c r="D1048568" s="73"/>
-      <c r="E1048568" s="73"/>
-    </row>
-    <row r="1048569" s="64" customFormat="1" spans="1:5">
-      <c r="A1048569" s="73"/>
-      <c r="B1048569" s="73"/>
-      <c r="D1048569" s="73"/>
-      <c r="E1048569" s="73"/>
-    </row>
-    <row r="1048570" s="64" customFormat="1" spans="1:5">
-      <c r="A1048570" s="73"/>
-      <c r="B1048570" s="73"/>
-      <c r="D1048570" s="73"/>
-      <c r="E1048570" s="73"/>
-    </row>
-    <row r="1048571" s="64" customFormat="1" spans="1:5">
-      <c r="A1048571" s="73"/>
-      <c r="B1048571" s="73"/>
-      <c r="D1048571" s="73"/>
-      <c r="E1048571" s="73"/>
-    </row>
-    <row r="1048572" s="64" customFormat="1" spans="1:5">
-      <c r="A1048572" s="73"/>
-      <c r="B1048572" s="73"/>
-      <c r="D1048572" s="73"/>
-      <c r="E1048572" s="73"/>
-    </row>
-    <row r="1048573" s="64" customFormat="1" spans="1:5">
-      <c r="A1048573" s="73"/>
-      <c r="B1048573" s="73"/>
-      <c r="D1048573" s="73"/>
-      <c r="E1048573" s="73"/>
-    </row>
-    <row r="1048574" s="64" customFormat="1" spans="1:5">
-      <c r="A1048574" s="73"/>
-      <c r="B1048574" s="73"/>
-      <c r="D1048574" s="73"/>
-      <c r="E1048574" s="73"/>
-    </row>
-    <row r="1048575" s="64" customFormat="1" spans="1:5">
-      <c r="A1048575" s="73"/>
-      <c r="B1048575" s="73"/>
-      <c r="D1048575" s="73"/>
-      <c r="E1048575" s="73"/>
-    </row>
-    <row r="1048576" s="64" customFormat="1" spans="1:5">
-      <c r="A1048576" s="73"/>
-      <c r="B1048576" s="73"/>
-      <c r="D1048576" s="73"/>
-      <c r="E1048576" s="73"/>
+    <row r="1048373" s="72" customFormat="1" spans="1:5">
+      <c r="A1048373" s="81"/>
+      <c r="B1048373" s="81"/>
+      <c r="D1048373" s="81"/>
+      <c r="E1048373" s="81"/>
+    </row>
+    <row r="1048374" s="72" customFormat="1" spans="1:5">
+      <c r="A1048374" s="81"/>
+      <c r="B1048374" s="81"/>
+      <c r="D1048374" s="81"/>
+      <c r="E1048374" s="81"/>
+    </row>
+    <row r="1048375" s="72" customFormat="1" spans="1:5">
+      <c r="A1048375" s="81"/>
+      <c r="B1048375" s="81"/>
+      <c r="D1048375" s="81"/>
+      <c r="E1048375" s="81"/>
+    </row>
+    <row r="1048376" s="72" customFormat="1" spans="1:5">
+      <c r="A1048376" s="81"/>
+      <c r="B1048376" s="81"/>
+      <c r="D1048376" s="81"/>
+      <c r="E1048376" s="81"/>
+    </row>
+    <row r="1048377" s="72" customFormat="1" spans="1:5">
+      <c r="A1048377" s="81"/>
+      <c r="B1048377" s="81"/>
+      <c r="D1048377" s="81"/>
+      <c r="E1048377" s="81"/>
+    </row>
+    <row r="1048378" s="72" customFormat="1" spans="1:5">
+      <c r="A1048378" s="81"/>
+      <c r="B1048378" s="81"/>
+      <c r="D1048378" s="81"/>
+      <c r="E1048378" s="81"/>
+    </row>
+    <row r="1048379" s="72" customFormat="1" spans="1:5">
+      <c r="A1048379" s="81"/>
+      <c r="B1048379" s="81"/>
+      <c r="D1048379" s="81"/>
+      <c r="E1048379" s="81"/>
+    </row>
+    <row r="1048380" s="72" customFormat="1" spans="1:5">
+      <c r="A1048380" s="81"/>
+      <c r="B1048380" s="81"/>
+      <c r="D1048380" s="81"/>
+      <c r="E1048380" s="81"/>
+    </row>
+    <row r="1048381" s="72" customFormat="1" spans="1:5">
+      <c r="A1048381" s="81"/>
+      <c r="B1048381" s="81"/>
+      <c r="D1048381" s="81"/>
+      <c r="E1048381" s="81"/>
+    </row>
+    <row r="1048382" s="72" customFormat="1" spans="1:5">
+      <c r="A1048382" s="81"/>
+      <c r="B1048382" s="81"/>
+      <c r="D1048382" s="81"/>
+      <c r="E1048382" s="81"/>
+    </row>
+    <row r="1048383" s="72" customFormat="1" spans="1:5">
+      <c r="A1048383" s="81"/>
+      <c r="B1048383" s="81"/>
+      <c r="D1048383" s="81"/>
+      <c r="E1048383" s="81"/>
+    </row>
+    <row r="1048384" s="72" customFormat="1" spans="1:5">
+      <c r="A1048384" s="81"/>
+      <c r="B1048384" s="81"/>
+      <c r="D1048384" s="81"/>
+      <c r="E1048384" s="81"/>
+    </row>
+    <row r="1048385" s="72" customFormat="1" spans="1:5">
+      <c r="A1048385" s="81"/>
+      <c r="B1048385" s="81"/>
+      <c r="D1048385" s="81"/>
+      <c r="E1048385" s="81"/>
+    </row>
+    <row r="1048386" s="72" customFormat="1" spans="1:5">
+      <c r="A1048386" s="81"/>
+      <c r="B1048386" s="81"/>
+      <c r="D1048386" s="81"/>
+      <c r="E1048386" s="81"/>
+    </row>
+    <row r="1048387" s="72" customFormat="1" spans="1:5">
+      <c r="A1048387" s="81"/>
+      <c r="B1048387" s="81"/>
+      <c r="D1048387" s="81"/>
+      <c r="E1048387" s="81"/>
+    </row>
+    <row r="1048388" s="72" customFormat="1" spans="1:5">
+      <c r="A1048388" s="81"/>
+      <c r="B1048388" s="81"/>
+      <c r="D1048388" s="81"/>
+      <c r="E1048388" s="81"/>
+    </row>
+    <row r="1048389" s="72" customFormat="1" spans="1:5">
+      <c r="A1048389" s="81"/>
+      <c r="B1048389" s="81"/>
+      <c r="D1048389" s="81"/>
+      <c r="E1048389" s="81"/>
+    </row>
+    <row r="1048390" s="72" customFormat="1" spans="1:5">
+      <c r="A1048390" s="81"/>
+      <c r="B1048390" s="81"/>
+      <c r="D1048390" s="81"/>
+      <c r="E1048390" s="81"/>
+    </row>
+    <row r="1048391" s="72" customFormat="1" spans="1:5">
+      <c r="A1048391" s="81"/>
+      <c r="B1048391" s="81"/>
+      <c r="D1048391" s="81"/>
+      <c r="E1048391" s="81"/>
+    </row>
+    <row r="1048392" s="72" customFormat="1" spans="1:5">
+      <c r="A1048392" s="81"/>
+      <c r="B1048392" s="81"/>
+      <c r="D1048392" s="81"/>
+      <c r="E1048392" s="81"/>
+    </row>
+    <row r="1048393" s="72" customFormat="1" spans="1:5">
+      <c r="A1048393" s="81"/>
+      <c r="B1048393" s="81"/>
+      <c r="D1048393" s="81"/>
+      <c r="E1048393" s="81"/>
+    </row>
+    <row r="1048394" s="72" customFormat="1" spans="1:5">
+      <c r="A1048394" s="81"/>
+      <c r="B1048394" s="81"/>
+      <c r="D1048394" s="81"/>
+      <c r="E1048394" s="81"/>
+    </row>
+    <row r="1048395" s="72" customFormat="1" spans="1:5">
+      <c r="A1048395" s="81"/>
+      <c r="B1048395" s="81"/>
+      <c r="D1048395" s="81"/>
+      <c r="E1048395" s="81"/>
+    </row>
+    <row r="1048396" s="72" customFormat="1" spans="1:5">
+      <c r="A1048396" s="81"/>
+      <c r="B1048396" s="81"/>
+      <c r="D1048396" s="81"/>
+      <c r="E1048396" s="81"/>
+    </row>
+    <row r="1048397" s="72" customFormat="1" spans="1:5">
+      <c r="A1048397" s="81"/>
+      <c r="B1048397" s="81"/>
+      <c r="D1048397" s="81"/>
+      <c r="E1048397" s="81"/>
+    </row>
+    <row r="1048398" s="72" customFormat="1" spans="1:5">
+      <c r="A1048398" s="81"/>
+      <c r="B1048398" s="81"/>
+      <c r="D1048398" s="81"/>
+      <c r="E1048398" s="81"/>
+    </row>
+    <row r="1048399" s="72" customFormat="1" spans="1:5">
+      <c r="A1048399" s="81"/>
+      <c r="B1048399" s="81"/>
+      <c r="D1048399" s="81"/>
+      <c r="E1048399" s="81"/>
+    </row>
+    <row r="1048400" s="72" customFormat="1" spans="1:5">
+      <c r="A1048400" s="81"/>
+      <c r="B1048400" s="81"/>
+      <c r="D1048400" s="81"/>
+      <c r="E1048400" s="81"/>
+    </row>
+    <row r="1048401" s="72" customFormat="1" spans="1:5">
+      <c r="A1048401" s="81"/>
+      <c r="B1048401" s="81"/>
+      <c r="D1048401" s="81"/>
+      <c r="E1048401" s="81"/>
+    </row>
+    <row r="1048402" s="72" customFormat="1" spans="1:5">
+      <c r="A1048402" s="81"/>
+      <c r="B1048402" s="81"/>
+      <c r="D1048402" s="81"/>
+      <c r="E1048402" s="81"/>
+    </row>
+    <row r="1048403" s="72" customFormat="1" spans="1:5">
+      <c r="A1048403" s="81"/>
+      <c r="B1048403" s="81"/>
+      <c r="D1048403" s="81"/>
+      <c r="E1048403" s="81"/>
+    </row>
+    <row r="1048404" s="72" customFormat="1" spans="1:5">
+      <c r="A1048404" s="81"/>
+      <c r="B1048404" s="81"/>
+      <c r="D1048404" s="81"/>
+      <c r="E1048404" s="81"/>
+    </row>
+    <row r="1048405" s="72" customFormat="1" spans="1:5">
+      <c r="A1048405" s="81"/>
+      <c r="B1048405" s="81"/>
+      <c r="D1048405" s="81"/>
+      <c r="E1048405" s="81"/>
+    </row>
+    <row r="1048406" s="72" customFormat="1" spans="1:5">
+      <c r="A1048406" s="81"/>
+      <c r="B1048406" s="81"/>
+      <c r="D1048406" s="81"/>
+      <c r="E1048406" s="81"/>
+    </row>
+    <row r="1048407" s="72" customFormat="1" spans="1:5">
+      <c r="A1048407" s="81"/>
+      <c r="B1048407" s="81"/>
+      <c r="D1048407" s="81"/>
+      <c r="E1048407" s="81"/>
+    </row>
+    <row r="1048408" s="72" customFormat="1" spans="1:5">
+      <c r="A1048408" s="81"/>
+      <c r="B1048408" s="81"/>
+      <c r="D1048408" s="81"/>
+      <c r="E1048408" s="81"/>
+    </row>
+    <row r="1048409" s="72" customFormat="1" spans="1:5">
+      <c r="A1048409" s="81"/>
+      <c r="B1048409" s="81"/>
+      <c r="D1048409" s="81"/>
+      <c r="E1048409" s="81"/>
+    </row>
+    <row r="1048410" s="72" customFormat="1" spans="1:5">
+      <c r="A1048410" s="81"/>
+      <c r="B1048410" s="81"/>
+      <c r="D1048410" s="81"/>
+      <c r="E1048410" s="81"/>
+    </row>
+    <row r="1048411" s="72" customFormat="1" spans="1:5">
+      <c r="A1048411" s="81"/>
+      <c r="B1048411" s="81"/>
+      <c r="D1048411" s="81"/>
+      <c r="E1048411" s="81"/>
+    </row>
+    <row r="1048412" s="72" customFormat="1" spans="1:5">
+      <c r="A1048412" s="81"/>
+      <c r="B1048412" s="81"/>
+      <c r="D1048412" s="81"/>
+      <c r="E1048412" s="81"/>
+    </row>
+    <row r="1048413" s="72" customFormat="1" spans="1:5">
+      <c r="A1048413" s="81"/>
+      <c r="B1048413" s="81"/>
+      <c r="D1048413" s="81"/>
+      <c r="E1048413" s="81"/>
+    </row>
+    <row r="1048414" s="72" customFormat="1" spans="1:5">
+      <c r="A1048414" s="81"/>
+      <c r="B1048414" s="81"/>
+      <c r="D1048414" s="81"/>
+      <c r="E1048414" s="81"/>
+    </row>
+    <row r="1048415" s="72" customFormat="1" spans="1:5">
+      <c r="A1048415" s="81"/>
+      <c r="B1048415" s="81"/>
+      <c r="D1048415" s="81"/>
+      <c r="E1048415" s="81"/>
+    </row>
+    <row r="1048416" s="72" customFormat="1" spans="1:5">
+      <c r="A1048416" s="81"/>
+      <c r="B1048416" s="81"/>
+      <c r="D1048416" s="81"/>
+      <c r="E1048416" s="81"/>
+    </row>
+    <row r="1048417" s="72" customFormat="1" spans="1:5">
+      <c r="A1048417" s="81"/>
+      <c r="B1048417" s="81"/>
+      <c r="D1048417" s="81"/>
+      <c r="E1048417" s="81"/>
+    </row>
+    <row r="1048418" s="72" customFormat="1" spans="1:5">
+      <c r="A1048418" s="81"/>
+      <c r="B1048418" s="81"/>
+      <c r="D1048418" s="81"/>
+      <c r="E1048418" s="81"/>
+    </row>
+    <row r="1048419" s="72" customFormat="1" spans="1:5">
+      <c r="A1048419" s="81"/>
+      <c r="B1048419" s="81"/>
+      <c r="D1048419" s="81"/>
+      <c r="E1048419" s="81"/>
+    </row>
+    <row r="1048420" s="72" customFormat="1" spans="1:5">
+      <c r="A1048420" s="81"/>
+      <c r="B1048420" s="81"/>
+      <c r="D1048420" s="81"/>
+      <c r="E1048420" s="81"/>
+    </row>
+    <row r="1048421" s="72" customFormat="1" spans="1:5">
+      <c r="A1048421" s="81"/>
+      <c r="B1048421" s="81"/>
+      <c r="D1048421" s="81"/>
+      <c r="E1048421" s="81"/>
+    </row>
+    <row r="1048422" s="72" customFormat="1" spans="1:5">
+      <c r="A1048422" s="81"/>
+      <c r="B1048422" s="81"/>
+      <c r="D1048422" s="81"/>
+      <c r="E1048422" s="81"/>
+    </row>
+    <row r="1048423" s="72" customFormat="1" spans="1:5">
+      <c r="A1048423" s="81"/>
+      <c r="B1048423" s="81"/>
+      <c r="D1048423" s="81"/>
+      <c r="E1048423" s="81"/>
+    </row>
+    <row r="1048424" s="72" customFormat="1" spans="1:5">
+      <c r="A1048424" s="81"/>
+      <c r="B1048424" s="81"/>
+      <c r="D1048424" s="81"/>
+      <c r="E1048424" s="81"/>
+    </row>
+    <row r="1048425" s="72" customFormat="1" spans="1:5">
+      <c r="A1048425" s="81"/>
+      <c r="B1048425" s="81"/>
+      <c r="D1048425" s="81"/>
+      <c r="E1048425" s="81"/>
+    </row>
+    <row r="1048426" s="72" customFormat="1" spans="1:5">
+      <c r="A1048426" s="81"/>
+      <c r="B1048426" s="81"/>
+      <c r="D1048426" s="81"/>
+      <c r="E1048426" s="81"/>
+    </row>
+    <row r="1048427" s="72" customFormat="1" spans="1:5">
+      <c r="A1048427" s="81"/>
+      <c r="B1048427" s="81"/>
+      <c r="D1048427" s="81"/>
+      <c r="E1048427" s="81"/>
+    </row>
+    <row r="1048428" s="72" customFormat="1" spans="1:5">
+      <c r="A1048428" s="81"/>
+      <c r="B1048428" s="81"/>
+      <c r="D1048428" s="81"/>
+      <c r="E1048428" s="81"/>
+    </row>
+    <row r="1048429" s="72" customFormat="1" spans="1:5">
+      <c r="A1048429" s="81"/>
+      <c r="B1048429" s="81"/>
+      <c r="D1048429" s="81"/>
+      <c r="E1048429" s="81"/>
+    </row>
+    <row r="1048430" s="72" customFormat="1" spans="1:5">
+      <c r="A1048430" s="81"/>
+      <c r="B1048430" s="81"/>
+      <c r="D1048430" s="81"/>
+      <c r="E1048430" s="81"/>
+    </row>
+    <row r="1048431" s="72" customFormat="1" spans="1:5">
+      <c r="A1048431" s="81"/>
+      <c r="B1048431" s="81"/>
+      <c r="D1048431" s="81"/>
+      <c r="E1048431" s="81"/>
+    </row>
+    <row r="1048432" s="72" customFormat="1" spans="1:5">
+      <c r="A1048432" s="81"/>
+      <c r="B1048432" s="81"/>
+      <c r="D1048432" s="81"/>
+      <c r="E1048432" s="81"/>
+    </row>
+    <row r="1048433" s="72" customFormat="1" spans="1:5">
+      <c r="A1048433" s="81"/>
+      <c r="B1048433" s="81"/>
+      <c r="D1048433" s="81"/>
+      <c r="E1048433" s="81"/>
+    </row>
+    <row r="1048434" s="72" customFormat="1" spans="1:5">
+      <c r="A1048434" s="81"/>
+      <c r="B1048434" s="81"/>
+      <c r="D1048434" s="81"/>
+      <c r="E1048434" s="81"/>
+    </row>
+    <row r="1048435" s="72" customFormat="1" spans="1:5">
+      <c r="A1048435" s="81"/>
+      <c r="B1048435" s="81"/>
+      <c r="D1048435" s="81"/>
+      <c r="E1048435" s="81"/>
+    </row>
+    <row r="1048436" s="72" customFormat="1" spans="1:5">
+      <c r="A1048436" s="81"/>
+      <c r="B1048436" s="81"/>
+      <c r="D1048436" s="81"/>
+      <c r="E1048436" s="81"/>
+    </row>
+    <row r="1048437" s="72" customFormat="1" spans="1:5">
+      <c r="A1048437" s="81"/>
+      <c r="B1048437" s="81"/>
+      <c r="D1048437" s="81"/>
+      <c r="E1048437" s="81"/>
+    </row>
+    <row r="1048438" s="72" customFormat="1" spans="1:5">
+      <c r="A1048438" s="81"/>
+      <c r="B1048438" s="81"/>
+      <c r="D1048438" s="81"/>
+      <c r="E1048438" s="81"/>
+    </row>
+    <row r="1048439" s="72" customFormat="1" spans="1:5">
+      <c r="A1048439" s="81"/>
+      <c r="B1048439" s="81"/>
+      <c r="D1048439" s="81"/>
+      <c r="E1048439" s="81"/>
+    </row>
+    <row r="1048440" s="72" customFormat="1" spans="1:5">
+      <c r="A1048440" s="81"/>
+      <c r="B1048440" s="81"/>
+      <c r="D1048440" s="81"/>
+      <c r="E1048440" s="81"/>
+    </row>
+    <row r="1048441" s="72" customFormat="1" spans="1:5">
+      <c r="A1048441" s="81"/>
+      <c r="B1048441" s="81"/>
+      <c r="D1048441" s="81"/>
+      <c r="E1048441" s="81"/>
+    </row>
+    <row r="1048442" s="72" customFormat="1" spans="1:5">
+      <c r="A1048442" s="81"/>
+      <c r="B1048442" s="81"/>
+      <c r="D1048442" s="81"/>
+      <c r="E1048442" s="81"/>
+    </row>
+    <row r="1048443" s="72" customFormat="1" spans="1:5">
+      <c r="A1048443" s="81"/>
+      <c r="B1048443" s="81"/>
+      <c r="D1048443" s="81"/>
+      <c r="E1048443" s="81"/>
+    </row>
+    <row r="1048444" s="72" customFormat="1" spans="1:5">
+      <c r="A1048444" s="81"/>
+      <c r="B1048444" s="81"/>
+      <c r="D1048444" s="81"/>
+      <c r="E1048444" s="81"/>
+    </row>
+    <row r="1048445" s="72" customFormat="1" spans="1:5">
+      <c r="A1048445" s="81"/>
+      <c r="B1048445" s="81"/>
+      <c r="D1048445" s="81"/>
+      <c r="E1048445" s="81"/>
+    </row>
+    <row r="1048446" s="72" customFormat="1" spans="1:5">
+      <c r="A1048446" s="81"/>
+      <c r="B1048446" s="81"/>
+      <c r="D1048446" s="81"/>
+      <c r="E1048446" s="81"/>
+    </row>
+    <row r="1048447" s="72" customFormat="1" spans="1:5">
+      <c r="A1048447" s="81"/>
+      <c r="B1048447" s="81"/>
+      <c r="D1048447" s="81"/>
+      <c r="E1048447" s="81"/>
+    </row>
+    <row r="1048448" s="72" customFormat="1" spans="1:5">
+      <c r="A1048448" s="81"/>
+      <c r="B1048448" s="81"/>
+      <c r="D1048448" s="81"/>
+      <c r="E1048448" s="81"/>
+    </row>
+    <row r="1048449" s="72" customFormat="1" spans="1:5">
+      <c r="A1048449" s="81"/>
+      <c r="B1048449" s="81"/>
+      <c r="D1048449" s="81"/>
+      <c r="E1048449" s="81"/>
+    </row>
+    <row r="1048450" s="72" customFormat="1" spans="1:5">
+      <c r="A1048450" s="81"/>
+      <c r="B1048450" s="81"/>
+      <c r="D1048450" s="81"/>
+      <c r="E1048450" s="81"/>
+    </row>
+    <row r="1048451" s="72" customFormat="1" spans="1:5">
+      <c r="A1048451" s="81"/>
+      <c r="B1048451" s="81"/>
+      <c r="D1048451" s="81"/>
+      <c r="E1048451" s="81"/>
+    </row>
+    <row r="1048452" s="72" customFormat="1" spans="1:5">
+      <c r="A1048452" s="81"/>
+      <c r="B1048452" s="81"/>
+      <c r="D1048452" s="81"/>
+      <c r="E1048452" s="81"/>
+    </row>
+    <row r="1048453" s="72" customFormat="1" spans="1:5">
+      <c r="A1048453" s="81"/>
+      <c r="B1048453" s="81"/>
+      <c r="D1048453" s="81"/>
+      <c r="E1048453" s="81"/>
+    </row>
+    <row r="1048454" s="72" customFormat="1" spans="1:5">
+      <c r="A1048454" s="81"/>
+      <c r="B1048454" s="81"/>
+      <c r="D1048454" s="81"/>
+      <c r="E1048454" s="81"/>
+    </row>
+    <row r="1048455" s="72" customFormat="1" spans="1:5">
+      <c r="A1048455" s="81"/>
+      <c r="B1048455" s="81"/>
+      <c r="D1048455" s="81"/>
+      <c r="E1048455" s="81"/>
+    </row>
+    <row r="1048456" s="72" customFormat="1" spans="1:5">
+      <c r="A1048456" s="81"/>
+      <c r="B1048456" s="81"/>
+      <c r="D1048456" s="81"/>
+      <c r="E1048456" s="81"/>
+    </row>
+    <row r="1048457" s="72" customFormat="1" spans="1:5">
+      <c r="A1048457" s="81"/>
+      <c r="B1048457" s="81"/>
+      <c r="D1048457" s="81"/>
+      <c r="E1048457" s="81"/>
+    </row>
+    <row r="1048458" s="72" customFormat="1" spans="1:5">
+      <c r="A1048458" s="81"/>
+      <c r="B1048458" s="81"/>
+      <c r="D1048458" s="81"/>
+      <c r="E1048458" s="81"/>
+    </row>
+    <row r="1048459" s="72" customFormat="1" spans="1:5">
+      <c r="A1048459" s="81"/>
+      <c r="B1048459" s="81"/>
+      <c r="D1048459" s="81"/>
+      <c r="E1048459" s="81"/>
+    </row>
+    <row r="1048460" s="72" customFormat="1" spans="1:5">
+      <c r="A1048460" s="81"/>
+      <c r="B1048460" s="81"/>
+      <c r="D1048460" s="81"/>
+      <c r="E1048460" s="81"/>
+    </row>
+    <row r="1048461" s="72" customFormat="1" spans="1:5">
+      <c r="A1048461" s="81"/>
+      <c r="B1048461" s="81"/>
+      <c r="D1048461" s="81"/>
+      <c r="E1048461" s="81"/>
+    </row>
+    <row r="1048462" s="72" customFormat="1" spans="1:5">
+      <c r="A1048462" s="81"/>
+      <c r="B1048462" s="81"/>
+      <c r="D1048462" s="81"/>
+      <c r="E1048462" s="81"/>
+    </row>
+    <row r="1048463" s="72" customFormat="1" spans="1:5">
+      <c r="A1048463" s="81"/>
+      <c r="B1048463" s="81"/>
+      <c r="D1048463" s="81"/>
+      <c r="E1048463" s="81"/>
+    </row>
+    <row r="1048464" s="72" customFormat="1" spans="1:5">
+      <c r="A1048464" s="81"/>
+      <c r="B1048464" s="81"/>
+      <c r="D1048464" s="81"/>
+      <c r="E1048464" s="81"/>
+    </row>
+    <row r="1048465" s="72" customFormat="1" spans="1:5">
+      <c r="A1048465" s="81"/>
+      <c r="B1048465" s="81"/>
+      <c r="D1048465" s="81"/>
+      <c r="E1048465" s="81"/>
+    </row>
+    <row r="1048466" s="72" customFormat="1" spans="1:5">
+      <c r="A1048466" s="81"/>
+      <c r="B1048466" s="81"/>
+      <c r="D1048466" s="81"/>
+      <c r="E1048466" s="81"/>
+    </row>
+    <row r="1048467" s="72" customFormat="1" spans="1:5">
+      <c r="A1048467" s="81"/>
+      <c r="B1048467" s="81"/>
+      <c r="D1048467" s="81"/>
+      <c r="E1048467" s="81"/>
+    </row>
+    <row r="1048468" s="72" customFormat="1" spans="1:5">
+      <c r="A1048468" s="81"/>
+      <c r="B1048468" s="81"/>
+      <c r="D1048468" s="81"/>
+      <c r="E1048468" s="81"/>
+    </row>
+    <row r="1048469" s="72" customFormat="1" spans="1:5">
+      <c r="A1048469" s="81"/>
+      <c r="B1048469" s="81"/>
+      <c r="D1048469" s="81"/>
+      <c r="E1048469" s="81"/>
+    </row>
+    <row r="1048470" s="72" customFormat="1" spans="1:5">
+      <c r="A1048470" s="81"/>
+      <c r="B1048470" s="81"/>
+      <c r="D1048470" s="81"/>
+      <c r="E1048470" s="81"/>
+    </row>
+    <row r="1048471" s="72" customFormat="1" spans="1:5">
+      <c r="A1048471" s="81"/>
+      <c r="B1048471" s="81"/>
+      <c r="D1048471" s="81"/>
+      <c r="E1048471" s="81"/>
+    </row>
+    <row r="1048472" s="72" customFormat="1" spans="1:5">
+      <c r="A1048472" s="81"/>
+      <c r="B1048472" s="81"/>
+      <c r="D1048472" s="81"/>
+      <c r="E1048472" s="81"/>
+    </row>
+    <row r="1048473" s="72" customFormat="1" spans="1:5">
+      <c r="A1048473" s="81"/>
+      <c r="B1048473" s="81"/>
+      <c r="D1048473" s="81"/>
+      <c r="E1048473" s="81"/>
+    </row>
+    <row r="1048474" s="72" customFormat="1" spans="1:5">
+      <c r="A1048474" s="81"/>
+      <c r="B1048474" s="81"/>
+      <c r="D1048474" s="81"/>
+      <c r="E1048474" s="81"/>
+    </row>
+    <row r="1048475" s="72" customFormat="1" spans="1:5">
+      <c r="A1048475" s="81"/>
+      <c r="B1048475" s="81"/>
+      <c r="D1048475" s="81"/>
+      <c r="E1048475" s="81"/>
+    </row>
+    <row r="1048476" s="72" customFormat="1" spans="1:5">
+      <c r="A1048476" s="81"/>
+      <c r="B1048476" s="81"/>
+      <c r="D1048476" s="81"/>
+      <c r="E1048476" s="81"/>
+    </row>
+    <row r="1048477" s="72" customFormat="1" spans="1:5">
+      <c r="A1048477" s="81"/>
+      <c r="B1048477" s="81"/>
+      <c r="D1048477" s="81"/>
+      <c r="E1048477" s="81"/>
+    </row>
+    <row r="1048478" s="72" customFormat="1" spans="1:5">
+      <c r="A1048478" s="81"/>
+      <c r="B1048478" s="81"/>
+      <c r="D1048478" s="81"/>
+      <c r="E1048478" s="81"/>
+    </row>
+    <row r="1048479" s="72" customFormat="1" spans="1:5">
+      <c r="A1048479" s="81"/>
+      <c r="B1048479" s="81"/>
+      <c r="D1048479" s="81"/>
+      <c r="E1048479" s="81"/>
+    </row>
+    <row r="1048480" s="72" customFormat="1" spans="1:5">
+      <c r="A1048480" s="81"/>
+      <c r="B1048480" s="81"/>
+      <c r="D1048480" s="81"/>
+      <c r="E1048480" s="81"/>
+    </row>
+    <row r="1048481" s="72" customFormat="1" spans="1:5">
+      <c r="A1048481" s="81"/>
+      <c r="B1048481" s="81"/>
+      <c r="D1048481" s="81"/>
+      <c r="E1048481" s="81"/>
+    </row>
+    <row r="1048482" s="72" customFormat="1" spans="1:5">
+      <c r="A1048482" s="81"/>
+      <c r="B1048482" s="81"/>
+      <c r="D1048482" s="81"/>
+      <c r="E1048482" s="81"/>
+    </row>
+    <row r="1048483" s="72" customFormat="1" spans="1:5">
+      <c r="A1048483" s="81"/>
+      <c r="B1048483" s="81"/>
+      <c r="D1048483" s="81"/>
+      <c r="E1048483" s="81"/>
+    </row>
+    <row r="1048484" s="72" customFormat="1" spans="1:5">
+      <c r="A1048484" s="81"/>
+      <c r="B1048484" s="81"/>
+      <c r="D1048484" s="81"/>
+      <c r="E1048484" s="81"/>
+    </row>
+    <row r="1048485" s="72" customFormat="1" spans="1:5">
+      <c r="A1048485" s="81"/>
+      <c r="B1048485" s="81"/>
+      <c r="D1048485" s="81"/>
+      <c r="E1048485" s="81"/>
+    </row>
+    <row r="1048486" s="72" customFormat="1" spans="1:5">
+      <c r="A1048486" s="81"/>
+      <c r="B1048486" s="81"/>
+      <c r="D1048486" s="81"/>
+      <c r="E1048486" s="81"/>
+    </row>
+    <row r="1048487" s="72" customFormat="1" spans="1:5">
+      <c r="A1048487" s="81"/>
+      <c r="B1048487" s="81"/>
+      <c r="D1048487" s="81"/>
+      <c r="E1048487" s="81"/>
+    </row>
+    <row r="1048488" s="72" customFormat="1" spans="1:5">
+      <c r="A1048488" s="81"/>
+      <c r="B1048488" s="81"/>
+      <c r="D1048488" s="81"/>
+      <c r="E1048488" s="81"/>
+    </row>
+    <row r="1048489" s="72" customFormat="1" spans="1:5">
+      <c r="A1048489" s="81"/>
+      <c r="B1048489" s="81"/>
+      <c r="D1048489" s="81"/>
+      <c r="E1048489" s="81"/>
+    </row>
+    <row r="1048490" s="72" customFormat="1" spans="1:5">
+      <c r="A1048490" s="81"/>
+      <c r="B1048490" s="81"/>
+      <c r="D1048490" s="81"/>
+      <c r="E1048490" s="81"/>
+    </row>
+    <row r="1048491" s="72" customFormat="1" spans="1:5">
+      <c r="A1048491" s="81"/>
+      <c r="B1048491" s="81"/>
+      <c r="D1048491" s="81"/>
+      <c r="E1048491" s="81"/>
+    </row>
+    <row r="1048492" s="72" customFormat="1" spans="1:5">
+      <c r="A1048492" s="81"/>
+      <c r="B1048492" s="81"/>
+      <c r="D1048492" s="81"/>
+      <c r="E1048492" s="81"/>
+    </row>
+    <row r="1048493" s="72" customFormat="1" spans="1:5">
+      <c r="A1048493" s="81"/>
+      <c r="B1048493" s="81"/>
+      <c r="D1048493" s="81"/>
+      <c r="E1048493" s="81"/>
+    </row>
+    <row r="1048494" s="72" customFormat="1" spans="1:5">
+      <c r="A1048494" s="81"/>
+      <c r="B1048494" s="81"/>
+      <c r="D1048494" s="81"/>
+      <c r="E1048494" s="81"/>
+    </row>
+    <row r="1048495" s="72" customFormat="1" spans="1:5">
+      <c r="A1048495" s="81"/>
+      <c r="B1048495" s="81"/>
+      <c r="D1048495" s="81"/>
+      <c r="E1048495" s="81"/>
+    </row>
+    <row r="1048496" s="72" customFormat="1" spans="1:5">
+      <c r="A1048496" s="81"/>
+      <c r="B1048496" s="81"/>
+      <c r="D1048496" s="81"/>
+      <c r="E1048496" s="81"/>
+    </row>
+    <row r="1048497" s="72" customFormat="1" spans="1:5">
+      <c r="A1048497" s="81"/>
+      <c r="B1048497" s="81"/>
+      <c r="D1048497" s="81"/>
+      <c r="E1048497" s="81"/>
+    </row>
+    <row r="1048498" s="72" customFormat="1" spans="1:5">
+      <c r="A1048498" s="81"/>
+      <c r="B1048498" s="81"/>
+      <c r="D1048498" s="81"/>
+      <c r="E1048498" s="81"/>
+    </row>
+    <row r="1048499" s="72" customFormat="1" spans="1:5">
+      <c r="A1048499" s="81"/>
+      <c r="B1048499" s="81"/>
+      <c r="D1048499" s="81"/>
+      <c r="E1048499" s="81"/>
+    </row>
+    <row r="1048500" s="72" customFormat="1" spans="1:5">
+      <c r="A1048500" s="81"/>
+      <c r="B1048500" s="81"/>
+      <c r="D1048500" s="81"/>
+      <c r="E1048500" s="81"/>
+    </row>
+    <row r="1048501" s="72" customFormat="1" spans="1:5">
+      <c r="A1048501" s="81"/>
+      <c r="B1048501" s="81"/>
+      <c r="D1048501" s="81"/>
+      <c r="E1048501" s="81"/>
+    </row>
+    <row r="1048502" s="72" customFormat="1" spans="1:5">
+      <c r="A1048502" s="81"/>
+      <c r="B1048502" s="81"/>
+      <c r="D1048502" s="81"/>
+      <c r="E1048502" s="81"/>
+    </row>
+    <row r="1048503" s="72" customFormat="1" spans="1:5">
+      <c r="A1048503" s="81"/>
+      <c r="B1048503" s="81"/>
+      <c r="D1048503" s="81"/>
+      <c r="E1048503" s="81"/>
+    </row>
+    <row r="1048504" s="72" customFormat="1" spans="1:5">
+      <c r="A1048504" s="81"/>
+      <c r="B1048504" s="81"/>
+      <c r="D1048504" s="81"/>
+      <c r="E1048504" s="81"/>
+    </row>
+    <row r="1048505" s="72" customFormat="1" spans="1:5">
+      <c r="A1048505" s="81"/>
+      <c r="B1048505" s="81"/>
+      <c r="D1048505" s="81"/>
+      <c r="E1048505" s="81"/>
+    </row>
+    <row r="1048506" s="72" customFormat="1" spans="1:5">
+      <c r="A1048506" s="81"/>
+      <c r="B1048506" s="81"/>
+      <c r="D1048506" s="81"/>
+      <c r="E1048506" s="81"/>
+    </row>
+    <row r="1048507" s="72" customFormat="1" spans="1:5">
+      <c r="A1048507" s="81"/>
+      <c r="B1048507" s="81"/>
+      <c r="D1048507" s="81"/>
+      <c r="E1048507" s="81"/>
+    </row>
+    <row r="1048508" s="72" customFormat="1" spans="1:5">
+      <c r="A1048508" s="81"/>
+      <c r="B1048508" s="81"/>
+      <c r="D1048508" s="81"/>
+      <c r="E1048508" s="81"/>
+    </row>
+    <row r="1048509" s="72" customFormat="1" spans="1:5">
+      <c r="A1048509" s="81"/>
+      <c r="B1048509" s="81"/>
+      <c r="D1048509" s="81"/>
+      <c r="E1048509" s="81"/>
+    </row>
+    <row r="1048510" s="72" customFormat="1" spans="1:5">
+      <c r="A1048510" s="81"/>
+      <c r="B1048510" s="81"/>
+      <c r="D1048510" s="81"/>
+      <c r="E1048510" s="81"/>
+    </row>
+    <row r="1048511" s="72" customFormat="1" spans="1:5">
+      <c r="A1048511" s="81"/>
+      <c r="B1048511" s="81"/>
+      <c r="D1048511" s="81"/>
+      <c r="E1048511" s="81"/>
+    </row>
+    <row r="1048512" s="72" customFormat="1" spans="1:5">
+      <c r="A1048512" s="81"/>
+      <c r="B1048512" s="81"/>
+      <c r="D1048512" s="81"/>
+      <c r="E1048512" s="81"/>
+    </row>
+    <row r="1048513" s="72" customFormat="1" spans="1:5">
+      <c r="A1048513" s="81"/>
+      <c r="B1048513" s="81"/>
+      <c r="D1048513" s="81"/>
+      <c r="E1048513" s="81"/>
+    </row>
+    <row r="1048514" s="72" customFormat="1" spans="1:5">
+      <c r="A1048514" s="81"/>
+      <c r="B1048514" s="81"/>
+      <c r="D1048514" s="81"/>
+      <c r="E1048514" s="81"/>
+    </row>
+    <row r="1048515" s="72" customFormat="1" spans="1:5">
+      <c r="A1048515" s="81"/>
+      <c r="B1048515" s="81"/>
+      <c r="D1048515" s="81"/>
+      <c r="E1048515" s="81"/>
+    </row>
+    <row r="1048516" s="72" customFormat="1" spans="1:5">
+      <c r="A1048516" s="81"/>
+      <c r="B1048516" s="81"/>
+      <c r="D1048516" s="81"/>
+      <c r="E1048516" s="81"/>
+    </row>
+    <row r="1048517" s="72" customFormat="1" spans="1:5">
+      <c r="A1048517" s="81"/>
+      <c r="B1048517" s="81"/>
+      <c r="D1048517" s="81"/>
+      <c r="E1048517" s="81"/>
+    </row>
+    <row r="1048518" s="72" customFormat="1" spans="1:5">
+      <c r="A1048518" s="81"/>
+      <c r="B1048518" s="81"/>
+      <c r="D1048518" s="81"/>
+      <c r="E1048518" s="81"/>
+    </row>
+    <row r="1048519" s="72" customFormat="1" spans="1:5">
+      <c r="A1048519" s="81"/>
+      <c r="B1048519" s="81"/>
+      <c r="D1048519" s="81"/>
+      <c r="E1048519" s="81"/>
+    </row>
+    <row r="1048520" s="72" customFormat="1" spans="1:5">
+      <c r="A1048520" s="81"/>
+      <c r="B1048520" s="81"/>
+      <c r="D1048520" s="81"/>
+      <c r="E1048520" s="81"/>
+    </row>
+    <row r="1048521" s="72" customFormat="1" spans="1:5">
+      <c r="A1048521" s="81"/>
+      <c r="B1048521" s="81"/>
+      <c r="D1048521" s="81"/>
+      <c r="E1048521" s="81"/>
+    </row>
+    <row r="1048522" s="72" customFormat="1" spans="1:5">
+      <c r="A1048522" s="81"/>
+      <c r="B1048522" s="81"/>
+      <c r="D1048522" s="81"/>
+      <c r="E1048522" s="81"/>
+    </row>
+    <row r="1048523" s="72" customFormat="1" spans="1:5">
+      <c r="A1048523" s="81"/>
+      <c r="B1048523" s="81"/>
+      <c r="D1048523" s="81"/>
+      <c r="E1048523" s="81"/>
+    </row>
+    <row r="1048524" s="72" customFormat="1" spans="1:5">
+      <c r="A1048524" s="81"/>
+      <c r="B1048524" s="81"/>
+      <c r="D1048524" s="81"/>
+      <c r="E1048524" s="81"/>
+    </row>
+    <row r="1048525" s="72" customFormat="1" spans="1:5">
+      <c r="A1048525" s="81"/>
+      <c r="B1048525" s="81"/>
+      <c r="D1048525" s="81"/>
+      <c r="E1048525" s="81"/>
+    </row>
+    <row r="1048526" s="72" customFormat="1" spans="1:5">
+      <c r="A1048526" s="81"/>
+      <c r="B1048526" s="81"/>
+      <c r="D1048526" s="81"/>
+      <c r="E1048526" s="81"/>
+    </row>
+    <row r="1048527" s="72" customFormat="1" spans="1:5">
+      <c r="A1048527" s="81"/>
+      <c r="B1048527" s="81"/>
+      <c r="D1048527" s="81"/>
+      <c r="E1048527" s="81"/>
+    </row>
+    <row r="1048528" s="72" customFormat="1" spans="1:5">
+      <c r="A1048528" s="81"/>
+      <c r="B1048528" s="81"/>
+      <c r="D1048528" s="81"/>
+      <c r="E1048528" s="81"/>
+    </row>
+    <row r="1048529" s="72" customFormat="1" spans="1:5">
+      <c r="A1048529" s="81"/>
+      <c r="B1048529" s="81"/>
+      <c r="D1048529" s="81"/>
+      <c r="E1048529" s="81"/>
+    </row>
+    <row r="1048530" s="72" customFormat="1" spans="1:5">
+      <c r="A1048530" s="81"/>
+      <c r="B1048530" s="81"/>
+      <c r="D1048530" s="81"/>
+      <c r="E1048530" s="81"/>
+    </row>
+    <row r="1048531" s="72" customFormat="1" spans="1:5">
+      <c r="A1048531" s="81"/>
+      <c r="B1048531" s="81"/>
+      <c r="D1048531" s="81"/>
+      <c r="E1048531" s="81"/>
+    </row>
+    <row r="1048532" s="72" customFormat="1" spans="1:5">
+      <c r="A1048532" s="81"/>
+      <c r="B1048532" s="81"/>
+      <c r="D1048532" s="81"/>
+      <c r="E1048532" s="81"/>
+    </row>
+    <row r="1048533" s="72" customFormat="1" spans="1:5">
+      <c r="A1048533" s="81"/>
+      <c r="B1048533" s="81"/>
+      <c r="D1048533" s="81"/>
+      <c r="E1048533" s="81"/>
+    </row>
+    <row r="1048534" s="72" customFormat="1" spans="1:5">
+      <c r="A1048534" s="81"/>
+      <c r="B1048534" s="81"/>
+      <c r="D1048534" s="81"/>
+      <c r="E1048534" s="81"/>
+    </row>
+    <row r="1048535" s="72" customFormat="1" spans="1:5">
+      <c r="A1048535" s="81"/>
+      <c r="B1048535" s="81"/>
+      <c r="D1048535" s="81"/>
+      <c r="E1048535" s="81"/>
+    </row>
+    <row r="1048536" s="72" customFormat="1" spans="1:5">
+      <c r="A1048536" s="81"/>
+      <c r="B1048536" s="81"/>
+      <c r="D1048536" s="81"/>
+      <c r="E1048536" s="81"/>
+    </row>
+    <row r="1048537" s="72" customFormat="1" spans="1:5">
+      <c r="A1048537" s="81"/>
+      <c r="B1048537" s="81"/>
+      <c r="D1048537" s="81"/>
+      <c r="E1048537" s="81"/>
+    </row>
+    <row r="1048538" s="72" customFormat="1" spans="1:5">
+      <c r="A1048538" s="81"/>
+      <c r="B1048538" s="81"/>
+      <c r="D1048538" s="81"/>
+      <c r="E1048538" s="81"/>
+    </row>
+    <row r="1048539" s="72" customFormat="1" spans="1:5">
+      <c r="A1048539" s="81"/>
+      <c r="B1048539" s="81"/>
+      <c r="D1048539" s="81"/>
+      <c r="E1048539" s="81"/>
+    </row>
+    <row r="1048540" s="72" customFormat="1" spans="1:5">
+      <c r="A1048540" s="81"/>
+      <c r="B1048540" s="81"/>
+      <c r="D1048540" s="81"/>
+      <c r="E1048540" s="81"/>
+    </row>
+    <row r="1048541" s="72" customFormat="1" spans="1:5">
+      <c r="A1048541" s="81"/>
+      <c r="B1048541" s="81"/>
+      <c r="D1048541" s="81"/>
+      <c r="E1048541" s="81"/>
+    </row>
+    <row r="1048542" s="72" customFormat="1" spans="1:5">
+      <c r="A1048542" s="81"/>
+      <c r="B1048542" s="81"/>
+      <c r="D1048542" s="81"/>
+      <c r="E1048542" s="81"/>
+    </row>
+    <row r="1048543" s="72" customFormat="1" spans="1:5">
+      <c r="A1048543" s="81"/>
+      <c r="B1048543" s="81"/>
+      <c r="D1048543" s="81"/>
+      <c r="E1048543" s="81"/>
+    </row>
+    <row r="1048544" s="72" customFormat="1" spans="1:5">
+      <c r="A1048544" s="81"/>
+      <c r="B1048544" s="81"/>
+      <c r="D1048544" s="81"/>
+      <c r="E1048544" s="81"/>
+    </row>
+    <row r="1048545" s="72" customFormat="1" spans="1:5">
+      <c r="A1048545" s="81"/>
+      <c r="B1048545" s="81"/>
+      <c r="D1048545" s="81"/>
+      <c r="E1048545" s="81"/>
+    </row>
+    <row r="1048546" s="72" customFormat="1" spans="1:5">
+      <c r="A1048546" s="81"/>
+      <c r="B1048546" s="81"/>
+      <c r="D1048546" s="81"/>
+      <c r="E1048546" s="81"/>
+    </row>
+    <row r="1048547" s="72" customFormat="1" spans="1:5">
+      <c r="A1048547" s="81"/>
+      <c r="B1048547" s="81"/>
+      <c r="D1048547" s="81"/>
+      <c r="E1048547" s="81"/>
+    </row>
+    <row r="1048548" s="72" customFormat="1" spans="1:5">
+      <c r="A1048548" s="81"/>
+      <c r="B1048548" s="81"/>
+      <c r="D1048548" s="81"/>
+      <c r="E1048548" s="81"/>
+    </row>
+    <row r="1048549" s="72" customFormat="1" spans="1:5">
+      <c r="A1048549" s="81"/>
+      <c r="B1048549" s="81"/>
+      <c r="D1048549" s="81"/>
+      <c r="E1048549" s="81"/>
+    </row>
+    <row r="1048550" s="72" customFormat="1" spans="1:5">
+      <c r="A1048550" s="81"/>
+      <c r="B1048550" s="81"/>
+      <c r="D1048550" s="81"/>
+      <c r="E1048550" s="81"/>
+    </row>
+    <row r="1048551" s="72" customFormat="1" spans="1:5">
+      <c r="A1048551" s="81"/>
+      <c r="B1048551" s="81"/>
+      <c r="D1048551" s="81"/>
+      <c r="E1048551" s="81"/>
+    </row>
+    <row r="1048552" s="72" customFormat="1" spans="1:5">
+      <c r="A1048552" s="81"/>
+      <c r="B1048552" s="81"/>
+      <c r="D1048552" s="81"/>
+      <c r="E1048552" s="81"/>
+    </row>
+    <row r="1048553" s="72" customFormat="1" spans="1:5">
+      <c r="A1048553" s="81"/>
+      <c r="B1048553" s="81"/>
+      <c r="D1048553" s="81"/>
+      <c r="E1048553" s="81"/>
+    </row>
+    <row r="1048554" s="72" customFormat="1" spans="1:5">
+      <c r="A1048554" s="81"/>
+      <c r="B1048554" s="81"/>
+      <c r="D1048554" s="81"/>
+      <c r="E1048554" s="81"/>
+    </row>
+    <row r="1048555" s="72" customFormat="1" spans="1:5">
+      <c r="A1048555" s="81"/>
+      <c r="B1048555" s="81"/>
+      <c r="D1048555" s="81"/>
+      <c r="E1048555" s="81"/>
+    </row>
+    <row r="1048556" s="72" customFormat="1" spans="1:5">
+      <c r="A1048556" s="81"/>
+      <c r="B1048556" s="81"/>
+      <c r="D1048556" s="81"/>
+      <c r="E1048556" s="81"/>
+    </row>
+    <row r="1048557" s="72" customFormat="1" spans="1:5">
+      <c r="A1048557" s="81"/>
+      <c r="B1048557" s="81"/>
+      <c r="D1048557" s="81"/>
+      <c r="E1048557" s="81"/>
+    </row>
+    <row r="1048558" s="72" customFormat="1" spans="1:5">
+      <c r="A1048558" s="81"/>
+      <c r="B1048558" s="81"/>
+      <c r="D1048558" s="81"/>
+      <c r="E1048558" s="81"/>
+    </row>
+    <row r="1048559" s="72" customFormat="1" spans="1:5">
+      <c r="A1048559" s="81"/>
+      <c r="B1048559" s="81"/>
+      <c r="D1048559" s="81"/>
+      <c r="E1048559" s="81"/>
+    </row>
+    <row r="1048560" s="72" customFormat="1" spans="1:5">
+      <c r="A1048560" s="81"/>
+      <c r="B1048560" s="81"/>
+      <c r="D1048560" s="81"/>
+      <c r="E1048560" s="81"/>
+    </row>
+    <row r="1048561" s="72" customFormat="1" spans="1:5">
+      <c r="A1048561" s="81"/>
+      <c r="B1048561" s="81"/>
+      <c r="D1048561" s="81"/>
+      <c r="E1048561" s="81"/>
+    </row>
+    <row r="1048562" s="72" customFormat="1" spans="1:5">
+      <c r="A1048562" s="81"/>
+      <c r="B1048562" s="81"/>
+      <c r="D1048562" s="81"/>
+      <c r="E1048562" s="81"/>
+    </row>
+    <row r="1048563" s="72" customFormat="1" spans="1:5">
+      <c r="A1048563" s="81"/>
+      <c r="B1048563" s="81"/>
+      <c r="D1048563" s="81"/>
+      <c r="E1048563" s="81"/>
+    </row>
+    <row r="1048564" s="72" customFormat="1" spans="1:5">
+      <c r="A1048564" s="81"/>
+      <c r="B1048564" s="81"/>
+      <c r="D1048564" s="81"/>
+      <c r="E1048564" s="81"/>
+    </row>
+    <row r="1048565" s="72" customFormat="1" spans="1:5">
+      <c r="A1048565" s="81"/>
+      <c r="B1048565" s="81"/>
+      <c r="D1048565" s="81"/>
+      <c r="E1048565" s="81"/>
+    </row>
+    <row r="1048566" s="72" customFormat="1" spans="1:5">
+      <c r="A1048566" s="81"/>
+      <c r="B1048566" s="81"/>
+      <c r="D1048566" s="81"/>
+      <c r="E1048566" s="81"/>
+    </row>
+    <row r="1048567" s="72" customFormat="1" spans="1:5">
+      <c r="A1048567" s="81"/>
+      <c r="B1048567" s="81"/>
+      <c r="D1048567" s="81"/>
+      <c r="E1048567" s="81"/>
+    </row>
+    <row r="1048568" s="72" customFormat="1" spans="1:5">
+      <c r="A1048568" s="81"/>
+      <c r="B1048568" s="81"/>
+      <c r="D1048568" s="81"/>
+      <c r="E1048568" s="81"/>
+    </row>
+    <row r="1048569" s="72" customFormat="1" spans="1:5">
+      <c r="A1048569" s="81"/>
+      <c r="B1048569" s="81"/>
+      <c r="D1048569" s="81"/>
+      <c r="E1048569" s="81"/>
+    </row>
+    <row r="1048570" s="72" customFormat="1" spans="1:5">
+      <c r="A1048570" s="81"/>
+      <c r="B1048570" s="81"/>
+      <c r="D1048570" s="81"/>
+      <c r="E1048570" s="81"/>
+    </row>
+    <row r="1048571" s="72" customFormat="1" spans="1:5">
+      <c r="A1048571" s="81"/>
+      <c r="B1048571" s="81"/>
+      <c r="D1048571" s="81"/>
+      <c r="E1048571" s="81"/>
+    </row>
+    <row r="1048572" s="72" customFormat="1" spans="1:5">
+      <c r="A1048572" s="81"/>
+      <c r="B1048572" s="81"/>
+      <c r="D1048572" s="81"/>
+      <c r="E1048572" s="81"/>
+    </row>
+    <row r="1048573" s="72" customFormat="1" spans="1:5">
+      <c r="A1048573" s="81"/>
+      <c r="B1048573" s="81"/>
+      <c r="D1048573" s="81"/>
+      <c r="E1048573" s="81"/>
+    </row>
+    <row r="1048574" s="72" customFormat="1" spans="1:5">
+      <c r="A1048574" s="81"/>
+      <c r="B1048574" s="81"/>
+      <c r="D1048574" s="81"/>
+      <c r="E1048574" s="81"/>
+    </row>
+    <row r="1048575" s="72" customFormat="1" spans="1:5">
+      <c r="A1048575" s="81"/>
+      <c r="B1048575" s="81"/>
+      <c r="D1048575" s="81"/>
+      <c r="E1048575" s="81"/>
+    </row>
+    <row r="1048576" s="72" customFormat="1" spans="1:5">
+      <c r="A1048576" s="81"/>
+      <c r="B1048576" s="81"/>
+      <c r="D1048576" s="81"/>
+      <c r="E1048576" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E58">
@@ -4712,756 +4748,756 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="A63" sqref="A63:W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="33.75" spans="1:13">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="60"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" ht="16.5" spans="1:11">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="I3" s="51" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="I3" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" ht="16.5" spans="1:11">
-      <c r="A4" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="E4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="58" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:11">
-      <c r="A5" s="54">
+      <c r="A5" s="62">
         <v>33</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54">
+      <c r="C5" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="62">
         <v>49</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="54">
+      <c r="G5" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="62">
         <v>56</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="62" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="50">
+      <c r="A6" s="58">
         <v>31</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="50">
+      <c r="C6" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="58">
         <v>44</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="50">
+      <c r="G6" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="58">
         <v>54</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:11">
-      <c r="A7" s="50">
+      <c r="A7" s="58">
         <v>7</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="50">
+      <c r="C7" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="58">
         <v>12</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="50">
+      <c r="G7" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="58">
         <v>48</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:11">
-      <c r="A8" s="50">
+      <c r="A8" s="58">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="50">
+      <c r="C8" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="58">
         <v>8</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="50">
+      <c r="G8" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="58">
         <v>41</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:11">
-      <c r="A9" s="50">
+      <c r="A9" s="58">
         <v>30</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="50">
+      <c r="D9" s="63"/>
+      <c r="E9" s="58">
         <v>51</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="58">
         <v>36</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:11">
-      <c r="A10" s="50">
+      <c r="A10" s="58">
         <v>27</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="50">
+      <c r="D10" s="63"/>
+      <c r="E10" s="58">
         <v>47</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="58">
         <v>32</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:11">
-      <c r="A11" s="50">
+      <c r="A11" s="58">
         <v>14</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="50">
+      <c r="D11" s="64"/>
+      <c r="E11" s="58">
         <v>46</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="58">
         <v>17</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:11">
-      <c r="A12" s="50">
+      <c r="A12" s="58">
         <v>13</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="50">
+      <c r="D12" s="65"/>
+      <c r="E12" s="58">
         <v>45</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="58">
         <v>16</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:11">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="51" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="I15" s="51" t="s">
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="I15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
     </row>
     <row r="16" ht="16.5" spans="1:11">
-      <c r="A16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="50" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="50" t="s">
+      <c r="I16" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="58" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:11">
-      <c r="A17" s="54">
+      <c r="A17" s="62">
         <v>35</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="54">
+      <c r="C17" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="62">
         <v>52</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="54">
+      <c r="G17" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="62">
         <v>3</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="62" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:11">
-      <c r="A18" s="50">
+      <c r="A18" s="58">
         <v>34</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50">
+      <c r="C18" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58">
         <v>50</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="50">
-        <v>1</v>
-      </c>
-      <c r="J18" s="50" t="s">
+      <c r="G18" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="58">
+        <v>1</v>
+      </c>
+      <c r="J18" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:11">
-      <c r="A19" s="50">
+      <c r="A19" s="58">
         <v>29</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50">
+      <c r="C19" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58">
         <v>40</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="50">
+      <c r="G19" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="58">
         <v>24</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:11">
-      <c r="A20" s="50">
+      <c r="A20" s="58">
         <v>25</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50">
+      <c r="C20" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58">
         <v>37</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="50">
+      <c r="G20" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="58">
         <v>22</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:11">
-      <c r="A21" s="50">
+      <c r="A21" s="58">
         <v>55</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50">
+      <c r="D21" s="57"/>
+      <c r="E21" s="58">
         <v>39</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="58">
         <v>21</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:11">
-      <c r="A22" s="50">
+      <c r="A22" s="58">
         <v>53</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50">
+      <c r="D22" s="57"/>
+      <c r="E22" s="58">
         <v>20</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="50">
+      <c r="G22" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="58">
         <v>38</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:11">
-      <c r="A23" s="50">
+      <c r="A23" s="58">
         <v>43</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="50">
+      <c r="D23" s="65"/>
+      <c r="E23" s="58">
         <v>26</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="58">
         <v>9</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:11">
-      <c r="A24" s="50">
+      <c r="A24" s="58">
         <v>42</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="58">
         <v>18</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="50">
-        <v>6</v>
-      </c>
-      <c r="J24" s="50" t="s">
+      <c r="I24" s="58">
+        <v>6</v>
+      </c>
+      <c r="J24" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="5:7">
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" ht="16.5" spans="4:10">
-      <c r="D28" s="57"/>
-      <c r="E28" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="50" t="s">
+      <c r="D28" s="65"/>
+      <c r="E28" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" ht="16.5" spans="4:10">
-      <c r="D29" s="58"/>
-      <c r="E29" s="54">
+      <c r="D29" s="66"/>
+      <c r="E29" s="62">
         <v>4</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="61"/>
+      <c r="G29" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="63"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" ht="16.5" spans="4:10">
-      <c r="D30" s="59"/>
-      <c r="E30" s="50">
+      <c r="D30" s="67"/>
+      <c r="E30" s="58">
         <v>2</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="55"/>
-      <c r="J30" s="61"/>
+      <c r="G30" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="69"/>
     </row>
     <row r="31" ht="16.5" spans="4:10">
-      <c r="D31" s="55"/>
-      <c r="E31" s="50">
+      <c r="D31" s="63"/>
+      <c r="E31" s="58">
         <v>28</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="55"/>
-      <c r="J31" s="61"/>
+      <c r="G31" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="63"/>
+      <c r="J31" s="69"/>
     </row>
     <row r="32" ht="16.5" spans="4:10">
-      <c r="D32" s="55"/>
-      <c r="E32" s="50">
+      <c r="D32" s="63"/>
+      <c r="E32" s="58">
         <v>23</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="61"/>
+      <c r="G32" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="63"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" ht="16.5" spans="4:10">
-      <c r="D33" s="55"/>
-      <c r="E33" s="50">
+      <c r="D33" s="63"/>
+      <c r="E33" s="58">
         <v>19</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="55"/>
-      <c r="J33" s="61"/>
+      <c r="G33" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="63"/>
+      <c r="J33" s="69"/>
     </row>
     <row r="34" ht="16.5" spans="4:10">
-      <c r="D34" s="55"/>
-      <c r="E34" s="50">
+      <c r="D34" s="63"/>
+      <c r="E34" s="58">
         <v>15</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="55"/>
-      <c r="J34" s="61"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="69"/>
     </row>
     <row r="35" ht="16.5" spans="4:10">
-      <c r="D35" s="55"/>
-      <c r="E35" s="50">
+      <c r="D35" s="63"/>
+      <c r="E35" s="58">
         <v>11</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" ht="16.5" spans="4:10">
-      <c r="D36" s="55"/>
-      <c r="E36" s="50">
+      <c r="D36" s="63"/>
+      <c r="E36" s="58">
         <v>10</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="58" t="s">
         <v>141</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="55" t="s">
+      <c r="J36" s="63" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="37" spans="4:10">
-      <c r="D37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="D37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5489,7 +5525,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V28" sqref="V28"/>
+      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5508,73 +5544,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="47" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5591,7 +5627,7 @@
       <c r="D2" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="36">
         <v>8</v>
       </c>
       <c r="F2" s="15">
@@ -5626,15 +5662,15 @@
       <c r="Q2" s="17">
         <v>13</v>
       </c>
-      <c r="R2" s="42">
-        <v>6</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="R2" s="17">
+        <v>6</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
       <c r="W2" s="17"/>
-      <c r="X2" s="43"/>
+      <c r="X2" s="48"/>
     </row>
     <row r="3" ht="16.5" spans="1:24">
       <c r="A3" s="14" t="s">
@@ -5649,7 +5685,7 @@
       <c r="D3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="36">
         <v>9</v>
       </c>
       <c r="F3" s="15">
@@ -5684,15 +5720,15 @@
       <c r="Q3" s="17">
         <v>2</v>
       </c>
-      <c r="R3" s="42">
+      <c r="R3" s="17">
         <v>2</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
       <c r="W3" s="17"/>
-      <c r="X3" s="44"/>
+      <c r="X3" s="49"/>
     </row>
     <row r="4" ht="16.5" spans="1:24">
       <c r="A4" s="14" t="s">
@@ -5707,7 +5743,7 @@
       <c r="D4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="36">
         <v>4</v>
       </c>
       <c r="F4" s="15">
@@ -5742,33 +5778,33 @@
       <c r="Q4" s="17">
         <v>3</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="17">
         <v>3</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="17"/>
-      <c r="X4" s="44"/>
+      <c r="X4" s="49"/>
     </row>
     <row r="5" ht="16.5" spans="1:24">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="D5" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="38">
         <v>2</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="38">
         <v>7</v>
       </c>
       <c r="G5" s="16">
@@ -5800,15 +5836,15 @@
       <c r="Q5" s="17">
         <v>5</v>
       </c>
-      <c r="R5" s="42">
-        <v>6</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+      <c r="R5" s="17">
+        <v>6</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
       <c r="W5" s="17"/>
-      <c r="X5" s="45"/>
+      <c r="X5" s="50"/>
     </row>
     <row r="6" ht="16.5" spans="1:23">
       <c r="A6" s="14" t="s">
@@ -5841,7 +5877,7 @@
       <c r="J6" s="15">
         <v>3</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="44">
         <v>3</v>
       </c>
       <c r="L6" s="17">
@@ -5855,73 +5891,73 @@
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="39">
+      <c r="Q6" s="44">
         <v>5</v>
       </c>
-      <c r="R6" s="42">
-        <v>6</v>
-      </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="R6" s="17">
+        <v>6</v>
+      </c>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
       <c r="W6" s="17"/>
     </row>
     <row r="7" ht="16.5" spans="1:23">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="36">
-        <v>6</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="39">
+        <v>6</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="40">
         <v>9</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="40">
         <v>7</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="40">
         <v>11</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="40">
         <v>3</v>
       </c>
-      <c r="I7" s="15">
-        <v>6</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="I7" s="40">
+        <v>6</v>
+      </c>
+      <c r="J7" s="40">
         <v>2</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="45">
         <v>2</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="45">
         <v>3</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="45">
         <v>3</v>
       </c>
-      <c r="N7" s="17">
-        <v>1</v>
-      </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17">
+      <c r="N7" s="45">
+        <v>1</v>
+      </c>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45">
         <v>12</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="45">
         <v>3</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
       <c r="W7" s="17"/>
     </row>
     <row r="8" ht="16.5" spans="1:23">
@@ -5964,21 +6000,21 @@
       <c r="M8" s="17">
         <v>5</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="44">
         <v>6</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
-      <c r="Q8" s="39">
+      <c r="Q8" s="44">
         <v>8</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="17">
         <v>2</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
       <c r="W8" s="17"/>
     </row>
     <row r="9" ht="16.5" spans="1:23">
@@ -6029,13 +6065,13 @@
       <c r="Q9" s="17">
         <v>1</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="17">
         <v>2</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
       <c r="W9" s="17"/>
     </row>
     <row r="10" ht="16.5" spans="1:23">
@@ -6075,7 +6111,7 @@
       <c r="L10" s="17">
         <v>2</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="44">
         <v>2</v>
       </c>
       <c r="N10" s="17">
@@ -6086,13 +6122,13 @@
       <c r="Q10" s="17">
         <v>10</v>
       </c>
-      <c r="R10" s="42">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="R10" s="17">
+        <v>1</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
       <c r="W10" s="17"/>
     </row>
     <row r="11" ht="16.5" spans="1:23">
@@ -6143,13 +6179,13 @@
       <c r="Q11" s="17">
         <v>2</v>
       </c>
-      <c r="R11" s="42">
-        <v>6</v>
-      </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="R11" s="17">
+        <v>6</v>
+      </c>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
       <c r="W11" s="17"/>
     </row>
     <row r="12" ht="16.5" spans="1:23">
@@ -6183,7 +6219,7 @@
       <c r="J12" s="15">
         <v>2</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="44">
         <v>4</v>
       </c>
       <c r="L12" s="17">
@@ -6200,13 +6236,13 @@
       <c r="Q12" s="17">
         <v>6</v>
       </c>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="R12" s="18">
+        <v>1</v>
+      </c>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
       <c r="W12" s="17"/>
     </row>
     <row r="13" ht="16.5" spans="1:23">
@@ -6246,7 +6282,7 @@
       <c r="L13" s="17">
         <v>3</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="44">
         <v>3</v>
       </c>
       <c r="N13" s="17">
@@ -6257,13 +6293,13 @@
       <c r="Q13" s="17">
         <v>7</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="18">
         <v>5</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
       <c r="W13" s="17"/>
     </row>
     <row r="14" ht="16.5" spans="1:23">
@@ -6311,16 +6347,16 @@
       </c>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
-      <c r="Q14" s="39">
+      <c r="Q14" s="44">
         <v>10</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="18">
         <v>3</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
       <c r="W14" s="17"/>
     </row>
     <row r="15" ht="16.5" spans="1:23">
@@ -6354,7 +6390,7 @@
       <c r="J15" s="15">
         <v>3</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="44">
         <v>1</v>
       </c>
       <c r="L15" s="17">
@@ -6371,13 +6407,13 @@
       <c r="Q15" s="17">
         <v>9</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="18">
         <v>5</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
       <c r="W15" s="17"/>
     </row>
     <row r="16" ht="16.5" spans="1:23">
@@ -6428,13 +6464,13 @@
       <c r="Q16" s="17">
         <v>8</v>
       </c>
-      <c r="R16" s="2">
-        <v>6</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="R16" s="18">
+        <v>6</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
       <c r="W16" s="17"/>
     </row>
     <row r="17" ht="16.5" spans="1:23">
@@ -6474,7 +6510,7 @@
       <c r="L17" s="17">
         <v>1</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="44">
         <v>1</v>
       </c>
       <c r="N17" s="17">
@@ -6482,16 +6518,16 @@
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
-      <c r="Q17" s="39">
+      <c r="Q17" s="44">
         <v>14</v>
       </c>
-      <c r="R17" s="2">
-        <v>1</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="R17" s="18">
+        <v>1</v>
+      </c>
+      <c r="S17" s="18"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" ht="16.5" spans="1:23">
@@ -6542,29 +6578,29 @@
       <c r="Q18" s="17">
         <v>9</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="51">
         <v>2</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
       <c r="W18" s="17"/>
     </row>
     <row r="19" ht="16.5" spans="1:23">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="37" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="14">
         <v>18</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="38">
         <v>7</v>
       </c>
       <c r="F19" s="16">
@@ -6599,32 +6635,32 @@
       <c r="Q19" s="17">
         <v>1</v>
       </c>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="R19" s="18">
+        <v>1</v>
+      </c>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
       <c r="W19" s="17"/>
     </row>
     <row r="20" ht="16.5" spans="1:23">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="14">
         <v>19</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="37">
-        <v>1</v>
-      </c>
-      <c r="F20" s="37">
+      <c r="D20" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="38">
+        <v>1</v>
+      </c>
+      <c r="F20" s="38">
         <v>2</v>
       </c>
       <c r="G20" s="16">
@@ -6656,13 +6692,13 @@
       <c r="Q20" s="17">
         <v>9</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="18">
         <v>3</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
       <c r="W20" s="17"/>
     </row>
     <row r="21" ht="16.5" spans="1:23">
@@ -6705,21 +6741,21 @@
       <c r="M21" s="17">
         <v>6</v>
       </c>
-      <c r="N21" s="39">
+      <c r="N21" s="44">
         <v>4</v>
       </c>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
-      <c r="Q21" s="39">
+      <c r="Q21" s="44">
         <v>7</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="18">
         <v>4</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
       <c r="W21" s="17"/>
     </row>
     <row r="22" ht="16.5" spans="1:23">
@@ -6767,16 +6803,16 @@
       </c>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="39">
-        <v>6</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="Q22" s="44">
+        <v>6</v>
+      </c>
+      <c r="R22" s="18">
         <v>2</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
       <c r="W22" s="17"/>
     </row>
     <row r="23" ht="16.5" spans="1:23">
@@ -6827,70 +6863,70 @@
       <c r="Q23" s="17">
         <v>5</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="51">
         <v>5</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
       <c r="W23" s="17"/>
     </row>
     <row r="24" ht="16.5" spans="1:23">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="41">
         <v>23</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="37">
+      <c r="D24" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="40">
         <v>2</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="40">
         <v>7</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="42">
         <v>4</v>
       </c>
-      <c r="H24" s="15">
-        <v>6</v>
-      </c>
-      <c r="I24" s="15">
+      <c r="H24" s="42">
+        <v>6</v>
+      </c>
+      <c r="I24" s="42">
         <v>4</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="42">
         <v>3</v>
       </c>
-      <c r="K24" s="17">
-        <v>1</v>
-      </c>
-      <c r="L24" s="17">
+      <c r="K24" s="46">
+        <v>1</v>
+      </c>
+      <c r="L24" s="46">
         <v>3</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="46">
         <v>3</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="46">
         <v>7</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17">
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46">
         <v>11</v>
       </c>
-      <c r="R24" s="2">
-        <v>1</v>
-      </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="R24" s="51">
+        <v>1</v>
+      </c>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
       <c r="W24" s="17"/>
     </row>
     <row r="25" ht="16.5" spans="1:23">
@@ -6941,32 +6977,32 @@
       <c r="Q25" s="17">
         <v>11</v>
       </c>
-      <c r="R25" s="2">
-        <v>6</v>
-      </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+      <c r="R25" s="51">
+        <v>6</v>
+      </c>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
       <c r="W25" s="17"/>
     </row>
     <row r="26" ht="16.5" spans="1:23">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="14">
         <v>25</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="37">
-        <v>1</v>
-      </c>
-      <c r="F26" s="37">
+      <c r="D26" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="38">
+        <v>1</v>
+      </c>
+      <c r="F26" s="38">
         <v>2</v>
       </c>
       <c r="G26" s="16">
@@ -6998,13 +7034,13 @@
       <c r="Q26" s="17">
         <v>14</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="18">
         <v>2</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
       <c r="W26" s="17"/>
     </row>
     <row r="27" ht="16.5" spans="1:23">
@@ -7055,13 +7091,13 @@
       <c r="Q27" s="17">
         <v>12</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="18">
         <v>4</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
       <c r="W27" s="17"/>
     </row>
     <row r="28" ht="16.5" spans="1:23">
@@ -7095,7 +7131,7 @@
       <c r="J28" s="15">
         <v>1</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="44">
         <v>2</v>
       </c>
       <c r="L28" s="17">
@@ -7112,13 +7148,13 @@
       <c r="Q28" s="17">
         <v>7</v>
       </c>
-      <c r="R28" s="2">
-        <v>6</v>
-      </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
+      <c r="R28" s="18">
+        <v>6</v>
+      </c>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
       <c r="W28" s="17"/>
     </row>
     <row r="29" ht="16.5" spans="1:23">
@@ -7161,7 +7197,7 @@
       <c r="M29" s="17">
         <v>1</v>
       </c>
-      <c r="N29" s="39">
+      <c r="N29" s="44">
         <v>5</v>
       </c>
       <c r="O29" s="17"/>
@@ -7169,13 +7205,13 @@
       <c r="Q29" s="17">
         <v>11</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="18">
         <v>5</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
       <c r="W29" s="17"/>
     </row>
     <row r="30" ht="16.5" spans="1:23">
@@ -7226,13 +7262,13 @@
       <c r="Q30" s="17">
         <v>14</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="18">
         <v>3</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
       <c r="W30" s="17"/>
     </row>
     <row r="31" ht="16.5" spans="1:23">
@@ -7283,70 +7319,70 @@
       <c r="Q31" s="17">
         <v>14</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="18">
         <v>3</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
       <c r="W31" s="17"/>
     </row>
     <row r="32" ht="16.5" spans="1:23">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="39">
         <v>31</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="15">
+      <c r="D32" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="40">
         <v>8</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="40">
         <v>5</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="40">
         <v>14</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="40">
         <v>5</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="40">
         <v>5</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="40">
         <v>7</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="45">
         <v>2</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="45">
         <v>2</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="45">
         <v>2</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="45">
         <v>2</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17">
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45">
         <v>13</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="52">
         <v>4</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
       <c r="W32" s="17"/>
     </row>
     <row r="33" ht="16.5" spans="1:23">
@@ -7397,13 +7433,13 @@
       <c r="Q33" s="17">
         <v>1</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="18">
         <v>4</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
       <c r="W33" s="17"/>
     </row>
     <row r="34" ht="16.5" spans="1:23">
@@ -7451,16 +7487,16 @@
       </c>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
-      <c r="Q34" s="39">
+      <c r="Q34" s="44">
         <v>12</v>
       </c>
-      <c r="R34" s="2">
-        <v>1</v>
-      </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
+      <c r="R34" s="18">
+        <v>1</v>
+      </c>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
       <c r="W34" s="17"/>
     </row>
     <row r="35" ht="16.5" spans="1:23">
@@ -7511,13 +7547,13 @@
       <c r="Q35" s="17">
         <v>4</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="18">
         <v>5</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
       <c r="W35" s="17"/>
     </row>
     <row r="36" ht="16.5" spans="1:23">
@@ -7565,35 +7601,35 @@
       </c>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
-      <c r="Q36" s="39">
+      <c r="Q36" s="44">
         <v>11</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="18">
         <v>2</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
       <c r="W36" s="17"/>
     </row>
     <row r="37" ht="16.5" spans="1:23">
       <c r="A37" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="37">
         <v>36</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="38">
         <v>4</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="38">
         <v>7</v>
       </c>
       <c r="G37" s="15">
@@ -7625,13 +7661,13 @@
       <c r="Q37" s="17">
         <v>2</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="18">
         <v>2</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
       <c r="W37" s="17"/>
     </row>
     <row r="38" ht="16.5" spans="1:23">
@@ -7674,7 +7710,7 @@
       <c r="M38" s="17">
         <v>5</v>
       </c>
-      <c r="N38" s="39">
+      <c r="N38" s="44">
         <v>3</v>
       </c>
       <c r="O38" s="17"/>
@@ -7682,13 +7718,13 @@
       <c r="Q38" s="17">
         <v>3</v>
       </c>
-      <c r="R38" s="2">
-        <v>1</v>
-      </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
+      <c r="R38" s="18">
+        <v>1</v>
+      </c>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
       <c r="W38" s="17"/>
     </row>
     <row r="39" ht="16.5" spans="1:23">
@@ -7736,16 +7772,16 @@
       </c>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
-      <c r="Q39" s="39">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2">
+      <c r="Q39" s="44">
+        <v>1</v>
+      </c>
+      <c r="R39" s="18">
         <v>5</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
       <c r="W39" s="17"/>
     </row>
     <row r="40" ht="16.5" spans="1:23">
@@ -7785,7 +7821,7 @@
       <c r="L40" s="17">
         <v>6</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="44">
         <v>6</v>
       </c>
       <c r="N40" s="17">
@@ -7796,13 +7832,13 @@
       <c r="Q40" s="17">
         <v>6</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="18">
         <v>3</v>
       </c>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
       <c r="W40" s="17"/>
     </row>
     <row r="41" ht="16.5" spans="1:23">
@@ -7853,13 +7889,13 @@
       <c r="Q41" s="17">
         <v>8</v>
       </c>
-      <c r="R41" s="2">
-        <v>6</v>
-      </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
+      <c r="R41" s="18">
+        <v>6</v>
+      </c>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
       <c r="W41" s="17"/>
     </row>
     <row r="42" ht="16.5" spans="1:23">
@@ -7910,13 +7946,13 @@
       <c r="Q42" s="17">
         <v>5</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="51">
         <v>3</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
       <c r="W42" s="17"/>
     </row>
     <row r="43" ht="16.5" spans="1:23">
@@ -7956,7 +7992,7 @@
       <c r="L43" s="17">
         <v>4</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="44">
         <v>4</v>
       </c>
       <c r="N43" s="17">
@@ -7967,13 +8003,13 @@
       <c r="Q43" s="17">
         <v>12</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="18">
         <v>5</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
       <c r="W43" s="17"/>
     </row>
     <row r="44" ht="16.5" spans="1:23">
@@ -8024,13 +8060,13 @@
       <c r="Q44" s="17">
         <v>8</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44" s="53">
         <v>5</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
       <c r="W44" s="17"/>
     </row>
     <row r="45" ht="16.5" spans="1:23">
@@ -8081,13 +8117,13 @@
       <c r="Q45" s="17">
         <v>6</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45" s="51">
         <v>4</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
       <c r="W45" s="17"/>
     </row>
     <row r="46" ht="16.5" spans="1:23">
@@ -8130,7 +8166,7 @@
       <c r="M46" s="17">
         <v>2</v>
       </c>
-      <c r="N46" s="39">
+      <c r="N46" s="44">
         <v>2</v>
       </c>
       <c r="O46" s="17"/>
@@ -8138,13 +8174,13 @@
       <c r="Q46" s="17">
         <v>10</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="18">
         <v>2</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
       <c r="W46" s="17"/>
     </row>
     <row r="47" ht="16.5" spans="1:23">
@@ -8195,13 +8231,13 @@
       <c r="Q47" s="17">
         <v>3</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="18">
         <v>4</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
       <c r="W47" s="17"/>
     </row>
     <row r="48" ht="16.5" spans="1:23">
@@ -8249,16 +8285,16 @@
       </c>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
-      <c r="Q48" s="39">
+      <c r="Q48" s="44">
         <v>13</v>
       </c>
-      <c r="R48" s="2">
-        <v>6</v>
-      </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
+      <c r="R48" s="18">
+        <v>6</v>
+      </c>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
       <c r="W48" s="17"/>
     </row>
     <row r="49" ht="16.5" spans="1:23">
@@ -8306,16 +8342,16 @@
       </c>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
-      <c r="Q49" s="39">
+      <c r="Q49" s="44">
         <v>4</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R49" s="18">
         <v>4</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
       <c r="W49" s="17"/>
     </row>
     <row r="50" ht="16.5" spans="1:23">
@@ -8366,13 +8402,13 @@
       <c r="Q50" s="17">
         <v>4</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50" s="18">
         <v>3</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
       <c r="W50" s="17"/>
     </row>
     <row r="51" ht="16.5" spans="1:23">
@@ -8423,13 +8459,13 @@
       <c r="Q51" s="17">
         <v>10</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="18">
         <v>4</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
       <c r="W51" s="17"/>
     </row>
     <row r="52" ht="16.5" spans="1:23">
@@ -8472,21 +8508,21 @@
       <c r="M52" s="17">
         <v>4</v>
       </c>
-      <c r="N52" s="39">
+      <c r="N52" s="44">
         <v>1</v>
       </c>
       <c r="O52" s="17"/>
       <c r="P52" s="17"/>
-      <c r="Q52" s="39">
+      <c r="Q52" s="44">
         <v>2</v>
       </c>
-      <c r="R52" s="2">
-        <v>1</v>
-      </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
+      <c r="R52" s="18">
+        <v>1</v>
+      </c>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
       <c r="W52" s="17"/>
     </row>
     <row r="53" ht="16.5" spans="1:23">
@@ -8534,16 +8570,16 @@
       </c>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
-      <c r="Q53" s="39">
+      <c r="Q53" s="44">
         <v>3</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="18">
         <v>2</v>
       </c>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
       <c r="W53" s="17"/>
     </row>
     <row r="54" ht="16.5" spans="1:23">
@@ -8583,7 +8619,7 @@
       <c r="L54" s="17">
         <v>5</v>
       </c>
-      <c r="M54" s="39">
+      <c r="M54" s="44">
         <v>5</v>
       </c>
       <c r="N54" s="17">
@@ -8594,13 +8630,13 @@
       <c r="Q54" s="17">
         <v>4</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="18">
         <v>5</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
       <c r="W54" s="17"/>
     </row>
     <row r="55" ht="16.5" spans="1:23">
@@ -8651,13 +8687,13 @@
       <c r="Q55" s="17">
         <v>7</v>
       </c>
-      <c r="R55" s="2">
-        <v>1</v>
-      </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
+      <c r="R55" s="53">
+        <v>1</v>
+      </c>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
       <c r="W55" s="17"/>
     </row>
     <row r="56" ht="16.5" spans="1:23">
@@ -8700,21 +8736,21 @@
       <c r="M56" s="17">
         <v>5</v>
       </c>
-      <c r="N56" s="39">
+      <c r="N56" s="44">
         <v>7</v>
       </c>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
-      <c r="Q56" s="39">
+      <c r="Q56" s="44">
         <v>9</v>
       </c>
-      <c r="R56" s="2">
+      <c r="R56" s="18">
         <v>4</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
       <c r="W56" s="17"/>
     </row>
   </sheetData>
@@ -8729,7 +8765,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="A63" sqref="A63:W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9387,39 +9423,39 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K29"/>
+      <selection activeCell="A63" sqref="A63:W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="33.75" spans="1:12">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" ht="14.25" spans="1:12">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="29"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="1:12">
@@ -9475,306 +9511,306 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" ht="16.5" spans="1:12">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="23">
         <v>0.525818999999999</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>40</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="G5" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="24">
         <v>0.342999999999999</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="25">
         <v>7</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="23">
+      <c r="K5" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:12">
-      <c r="A6" s="21">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="23">
         <v>0.342999999999999</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="25">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="G6" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="24">
         <v>0.168069999999999</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="26">
         <v>24</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="23">
+      <c r="K6" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="24">
         <v>0.168069999999999</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:12">
-      <c r="A7" s="24">
+      <c r="A7" s="25">
         <v>28</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="C7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="23">
         <v>0.240099999999999</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="22">
         <v>23</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="G7" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="24">
         <v>0.285718999999999</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="27">
         <v>54</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="23">
+      <c r="K7" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:12">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>49</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="23">
         <v>0.342999999999999</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="26">
         <v>48</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="G8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="24">
         <v>0.7</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="26">
         <v>56</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="23">
+      <c r="K8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="24">
         <v>0.117648999999999</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="26">
+      <c r="A9" s="27">
         <v>16</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="C9" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="23">
         <v>0</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="27">
         <v>12</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="G9" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="24">
         <v>0.117648999999999</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="26">
         <v>37</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="23">
+      <c r="K9" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="24">
         <v>0.117648999999999</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <v>53</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="23">
         <v>0.7</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <v>55</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="24">
         <v>0.117648999999999</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="25">
         <v>15</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="24">
         <v>0.117648999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="24">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="28">
         <v>0.117648999999999</v>
       </c>
-      <c r="E11" s="25">
-        <v>6</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="26">
+        <v>6</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="24">
         <v>0.285718999999999</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="22">
         <v>11</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="25">
+      <c r="A12" s="26">
         <v>38</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="29">
         <v>0.342999999999999</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="22">
         <v>47</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="24">
         <v>0.489999999999999</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="26">
         <v>27</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9788,7 +9824,7 @@
       <c r="C13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="24">
         <v>0.7</v>
       </c>
       <c r="E13" s="17">
@@ -9800,7 +9836,7 @@
       <c r="G13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="24">
         <v>0.7</v>
       </c>
       <c r="I13" s="17">
@@ -9812,7 +9848,7 @@
       <c r="K13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="24">
         <v>0.117648999999999</v>
       </c>
     </row>
@@ -9826,7 +9862,7 @@
       <c r="C14" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="24">
         <v>0.489999999999999</v>
       </c>
       <c r="E14" s="5"/>
@@ -9933,306 +9969,306 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="21">
+      <c r="A20" s="22">
         <v>25</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="29">
+      <c r="C20" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="30">
         <v>0.525818999999999</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="25">
         <v>52</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="23">
+      <c r="G20" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="24">
         <v>0.168069999999999</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="26">
         <v>2</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="23">
+      <c r="K20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="24">
         <v>0.583099999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="21">
+      <c r="A21" s="22">
         <v>3</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="C21" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="30">
         <v>0.489999999999999</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="22">
         <v>5</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="23">
-        <v>1</v>
-      </c>
-      <c r="I21" s="24">
+      <c r="G21" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="25">
         <v>20</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L21" s="23">
+      <c r="K21" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="L21" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="21">
+      <c r="A22" s="22">
         <v>22</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="C22" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="30">
         <v>0.489999999999999</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="22">
         <v>35</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="23">
+      <c r="G22" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="24">
         <v>0.342999999999999</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="26">
         <v>33</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="23">
+      <c r="K22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="24">
         <v>0.49</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="21">
+      <c r="A23" s="22">
         <v>34</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="29">
+      <c r="C23" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="30">
         <v>0.489999999999999</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="22">
         <v>44</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="23">
+      <c r="G23" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="24">
         <v>0.489999999999999</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="26">
         <v>29</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="23">
+      <c r="K23" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="24">
         <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="24">
+      <c r="A24" s="25">
         <v>41</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="29">
+      <c r="C24" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="30">
         <v>0.117648999999999</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="26">
         <v>19</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="23">
+      <c r="G24" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="24">
         <v>0.525818999999999</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="25">
         <v>21</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="23">
+      <c r="K24" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="24">
+      <c r="A25" s="25">
         <v>45</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="30">
         <v>0.168069999999999</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="26">
         <v>36</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="24">
         <v>1.47571899999999</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="27">
         <v>39</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="26">
+      <c r="A26" s="27">
         <v>9</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="29">
         <v>0</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="25">
         <v>18</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="24">
         <v>0.285718999999999</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="26">
         <v>17</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="24">
         <v>0.117648999999999</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="25">
+      <c r="A27" s="26">
         <v>43</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="24">
         <v>0.168069999999999</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="27">
         <v>42</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="24">
         <v>0.168069999999999</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="22">
         <v>14</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="24">
         <v>1</v>
       </c>
     </row>
@@ -10246,7 +10282,7 @@
       <c r="C28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="24">
         <v>0.342999999999999</v>
       </c>
       <c r="E28" s="17">
@@ -10258,7 +10294,7 @@
       <c r="G28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="24">
         <v>0.342999999999999</v>
       </c>
       <c r="I28" s="17">
@@ -10270,7 +10306,7 @@
       <c r="K28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="24">
         <v>0.7</v>
       </c>
     </row>
@@ -10284,7 +10320,7 @@
       <c r="C29" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="31">
         <v>1</v>
       </c>
       <c r="E29" s="5"/>
@@ -10300,7 +10336,7 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -10314,7 +10350,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -10328,7 +10364,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -10342,7 +10378,7 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -10356,7 +10392,7 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -10370,16 +10406,16 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="23" t="s">
         <v>222</v>
       </c>
       <c r="L35" s="5"/>
@@ -10404,8 +10440,8 @@
   <sheetPr/>
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11497,7 +11533,6 @@
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29"/>
       <c r="O29" s="13"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -11916,13 +11951,13 @@
       <c r="Q66" s="17">
         <v>13</v>
       </c>
-      <c r="R66" s="2">
+      <c r="R66" s="18">
         <v>3</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
       <c r="W66" s="17"/>
     </row>
   </sheetData>
